--- a/new.xlsx
+++ b/new.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1265">
   <si>
     <t>ELK (CERVUS-ELAPHUS ROOSEVELTI) DIETARY-COMPOSITION AND QUALITY IN THE MOUNT ST-HELENS BLAST ZONE</t>
   </si>
@@ -2453,6 +2453,9 @@
   </si>
   <si>
     <t>Hypovitaminosis D and parathyroid hormone response in the elderly: effects on bone turnover and mortality</t>
+  </si>
+  <si>
+    <t>FRANKLINAMPY		EducationBSPhDOregonUniversity1962ChairDepartmentofBiologyTeachingBiostatisticsSeniorSeminarResearchEnvironmentalmutagenesisTransformationofpollutantsintomutagensSelectedPublications	KhraiweshHM;LeeCM;BrandyY;AkinboyeES;BerheS;GittensG;AbbasMM;AmpyFR;AshrafM;BakareO2011Antitrypanosomalactivitiesandcytotoxicityofsomenovelimidosubstituted14naphthoquinonederivativesArchPharmRes	BrezoJCRoyalFRAmpyandVHeadings2006Ethnicidentityanddiabetestype2healthattitudesinAmericansofAfricanancestryEthnicityandDisease16:624632	UstonPLJFJrUrbanMAshrafCMLeeandFRAmpy2007L3L3ESantigenandsecretagoguesinducehistaminereleasefromporcineperipheralbloodbasophilsafterAscarissuuminfectionParasitolRes100:603611	NoureddineBerkaTimikiaVaughnVerleHeadingsBarbaraHarrisonRobertFMurrayJrFranklinRAmpyImamJohariAbdulMalik2009AttitudesofMuslimsRegardingtheNewGenetics:TestingTreatmentandTechnologyIn:GeneticsandEthicsinHealthCare:NewQuestionsintheAgeofGenomicHealthedRitaBlackMonsenAmericanNursesAssociationpp149–163	RoyalCDVEHeadingsETMolnarandFRAmpy1995ResilienceinsiblingsofchildrenwithSickleCelldiseaseJGenCounsel4:3199217	AmpyFRandAAsseffa1988Regulatoryeffectsof17bestradiolonmetabolismofdimethylnitrosaminebyrenalandhepaticmicrosomalenzymesfromBALB/cmiceCytobios55:8794	AmpyFRSSaxenaandKVerma1988BenzoapyrenemutagenicityinuninducedtissuesfromBALB/cmiceandSpragueDawleyratsasanindexofpossiblehealthrisksusingtheSalmonellamutagenicityassayCytobios56:8187</t>
   </si>
   <si>
     <t>Nanoparticles based. on the complex of chitosan and polyaspartic acid sodium salt: Preparation, characterization and the use for 5-fluorouracil delivery</t>
@@ -4162,30 +4165,30 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>812</v>
       </c>
       <c r="B2" t="s">
         <v>344</v>
       </c>
       <c r="C2" t="n">
-        <v>1823</v>
+        <v>1413</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5061728395061729</v>
+        <v>0.6049382716049383</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>812</v>
       </c>
       <c r="B3" t="s">
         <v>414</v>
       </c>
       <c r="C3" t="n">
-        <v>1817</v>
+        <v>1410</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4457831325301205</v>
+        <v>0.5783132530120482</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4193,7 +4196,7 @@
         <v>444</v>
       </c>
       <c r="B4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C4" t="n">
         <v>1807</v>
@@ -4249,7 +4252,7 @@
         <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C8" t="n">
         <v>1790</v>
@@ -4319,7 +4322,7 @@
         <v>444</v>
       </c>
       <c r="B13" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C13" t="n">
         <v>1809</v>
@@ -4333,7 +4336,7 @@
         <v>444</v>
       </c>
       <c r="B14" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C14" t="n">
         <v>1747</v>
@@ -4375,7 +4378,7 @@
         <v>444</v>
       </c>
       <c r="B17" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C17" t="n">
         <v>1739</v>
@@ -4389,7 +4392,7 @@
         <v>444</v>
       </c>
       <c r="B18" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C18" t="n">
         <v>1766</v>
@@ -4445,7 +4448,7 @@
         <v>299</v>
       </c>
       <c r="B22" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C22" t="n">
         <v>94</v>
@@ -4473,7 +4476,7 @@
         <v>299</v>
       </c>
       <c r="B24" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C24" t="n">
         <v>91</v>
@@ -4487,7 +4490,7 @@
         <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C25" t="n">
         <v>92</v>
@@ -4501,7 +4504,7 @@
         <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C26" t="n">
         <v>96</v>
@@ -4515,7 +4518,7 @@
         <v>299</v>
       </c>
       <c r="B27" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C27" t="n">
         <v>120</v>
@@ -4529,7 +4532,7 @@
         <v>299</v>
       </c>
       <c r="B28" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C28" t="n">
         <v>96</v>
@@ -4725,7 +4728,7 @@
         <v>672</v>
       </c>
       <c r="B42" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C42" t="n">
         <v>980</v>
@@ -4736,7 +4739,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B43" t="s">
         <v>363</v>
@@ -4750,10 +4753,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B44" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C44" t="n">
         <v>2280</v>
@@ -4764,7 +4767,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B45" t="s">
         <v>421</v>
@@ -4865,7 +4868,7 @@
         <v>766</v>
       </c>
       <c r="B52" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C52" t="n">
         <v>1419</v>
@@ -4921,7 +4924,7 @@
         <v>766</v>
       </c>
       <c r="B56" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C56" t="n">
         <v>1411</v>
@@ -4935,7 +4938,7 @@
         <v>766</v>
       </c>
       <c r="B57" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C57" t="n">
         <v>1419</v>
@@ -5005,7 +5008,7 @@
         <v>766</v>
       </c>
       <c r="B62" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C62" t="n">
         <v>1406</v>
@@ -5061,7 +5064,7 @@
         <v>766</v>
       </c>
       <c r="B66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C66" t="n">
         <v>1402</v>
@@ -5075,7 +5078,7 @@
         <v>766</v>
       </c>
       <c r="B67" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C67" t="n">
         <v>1418</v>
@@ -5103,7 +5106,7 @@
         <v>766</v>
       </c>
       <c r="B69" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C69" t="n">
         <v>1407</v>
@@ -5117,7 +5120,7 @@
         <v>766</v>
       </c>
       <c r="B70" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C70" t="n">
         <v>1399</v>
@@ -5159,7 +5162,7 @@
         <v>281</v>
       </c>
       <c r="B73" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C73" t="n">
         <v>1645</v>
@@ -5173,7 +5176,7 @@
         <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C74" t="n">
         <v>1597</v>
@@ -5187,7 +5190,7 @@
         <v>281</v>
       </c>
       <c r="B75" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C75" t="n">
         <v>1590</v>
@@ -5201,7 +5204,7 @@
         <v>281</v>
       </c>
       <c r="B76" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C76" t="n">
         <v>1604</v>
@@ -5229,7 +5232,7 @@
         <v>281</v>
       </c>
       <c r="B78" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C78" t="n">
         <v>1594</v>
@@ -5369,7 +5372,7 @@
         <v>281</v>
       </c>
       <c r="B88" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C88" t="n">
         <v>1620</v>
@@ -5411,7 +5414,7 @@
         <v>281</v>
       </c>
       <c r="B91" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C91" t="n">
         <v>1573</v>
@@ -5425,7 +5428,7 @@
         <v>281</v>
       </c>
       <c r="B92" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C92" t="n">
         <v>1541</v>
@@ -5453,7 +5456,7 @@
         <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C94" t="n">
         <v>1606</v>
@@ -5481,7 +5484,7 @@
         <v>281</v>
       </c>
       <c r="B96" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C96" t="n">
         <v>1572</v>
@@ -5509,7 +5512,7 @@
         <v>281</v>
       </c>
       <c r="B98" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C98" t="n">
         <v>1648</v>
@@ -5537,7 +5540,7 @@
         <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C100" t="n">
         <v>1641</v>
@@ -5551,7 +5554,7 @@
         <v>281</v>
       </c>
       <c r="B101" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C101" t="n">
         <v>1624</v>
@@ -5663,7 +5666,7 @@
         <v>281</v>
       </c>
       <c r="B109" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C109" t="n">
         <v>1604</v>
@@ -5677,7 +5680,7 @@
         <v>281</v>
       </c>
       <c r="B110" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C110" t="n">
         <v>1571</v>
@@ -5705,7 +5708,7 @@
         <v>281</v>
       </c>
       <c r="B112" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C112" t="n">
         <v>1595</v>
@@ -5775,7 +5778,7 @@
         <v>281</v>
       </c>
       <c r="B117" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C117" t="n">
         <v>1588</v>
@@ -5789,7 +5792,7 @@
         <v>281</v>
       </c>
       <c r="B118" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C118" t="n">
         <v>1620</v>
@@ -5845,7 +5848,7 @@
         <v>281</v>
       </c>
       <c r="B122" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C122" t="n">
         <v>1588</v>
@@ -5873,7 +5876,7 @@
         <v>281</v>
       </c>
       <c r="B124" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C124" t="n">
         <v>1638</v>
@@ -5887,7 +5890,7 @@
         <v>281</v>
       </c>
       <c r="B125" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C125" t="n">
         <v>1610</v>
@@ -5901,7 +5904,7 @@
         <v>281</v>
       </c>
       <c r="B126" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C126" t="n">
         <v>1611</v>
@@ -5985,7 +5988,7 @@
         <v>281</v>
       </c>
       <c r="B132" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C132" t="n">
         <v>1620</v>
@@ -5999,7 +6002,7 @@
         <v>281</v>
       </c>
       <c r="B133" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C133" t="n">
         <v>1551</v>
@@ -6097,7 +6100,7 @@
         <v>281</v>
       </c>
       <c r="B140" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C140" t="n">
         <v>1596</v>
@@ -6153,7 +6156,7 @@
         <v>281</v>
       </c>
       <c r="B144" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C144" t="n">
         <v>1624</v>
@@ -6251,7 +6254,7 @@
         <v>281</v>
       </c>
       <c r="B151" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C151" t="n">
         <v>1614</v>
@@ -6377,7 +6380,7 @@
         <v>281</v>
       </c>
       <c r="B160" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C160" t="n">
         <v>1632</v>
@@ -6489,7 +6492,7 @@
         <v>281</v>
       </c>
       <c r="B168" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C168" t="n">
         <v>1603</v>
@@ -6531,7 +6534,7 @@
         <v>281</v>
       </c>
       <c r="B171" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C171" t="n">
         <v>1623</v>
@@ -6559,7 +6562,7 @@
         <v>281</v>
       </c>
       <c r="B173" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C173" t="n">
         <v>1617</v>
@@ -6601,7 +6604,7 @@
         <v>281</v>
       </c>
       <c r="B176" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C176" t="n">
         <v>1627</v>
@@ -6629,7 +6632,7 @@
         <v>281</v>
       </c>
       <c r="B178" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C178" t="n">
         <v>1621</v>
@@ -6643,7 +6646,7 @@
         <v>281</v>
       </c>
       <c r="B179" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C179" t="n">
         <v>1636</v>
@@ -6657,7 +6660,7 @@
         <v>281</v>
       </c>
       <c r="B180" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C180" t="n">
         <v>1615</v>
@@ -6699,7 +6702,7 @@
         <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C183" t="n">
         <v>1614</v>
@@ -6755,7 +6758,7 @@
         <v>281</v>
       </c>
       <c r="B187" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C187" t="n">
         <v>1611</v>
@@ -6769,7 +6772,7 @@
         <v>281</v>
       </c>
       <c r="B188" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C188" t="n">
         <v>1616</v>
@@ -6797,7 +6800,7 @@
         <v>281</v>
       </c>
       <c r="B190" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C190" t="n">
         <v>1602</v>
@@ -6839,7 +6842,7 @@
         <v>281</v>
       </c>
       <c r="B193" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C193" t="n">
         <v>1625</v>
@@ -6909,7 +6912,7 @@
         <v>281</v>
       </c>
       <c r="B198" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C198" t="n">
         <v>1580</v>
@@ -6962,10 +6965,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B202" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C202" t="n">
         <v>2697</v>
@@ -6976,7 +6979,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B203" t="s">
         <v>210</v>
@@ -6990,10 +6993,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B204" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C204" t="n">
         <v>2613</v>
@@ -7004,7 +7007,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B205" t="s">
         <v>638</v>
@@ -7018,10 +7021,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B206" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C206" t="n">
         <v>2603</v>
@@ -7032,10 +7035,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B207" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C207" t="n">
         <v>2671</v>
@@ -7046,7 +7049,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B208" t="s">
         <v>65</v>
@@ -7060,7 +7063,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B209" t="s">
         <v>64</v>
@@ -7074,10 +7077,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B210" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C210" t="n">
         <v>2685</v>
@@ -7088,7 +7091,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B211" t="s">
         <v>181</v>
@@ -7102,10 +7105,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B212" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C212" t="n">
         <v>2619</v>
@@ -7116,7 +7119,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B213" t="s">
         <v>366</v>
@@ -7130,7 +7133,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B214" t="s">
         <v>165</v>
@@ -7144,7 +7147,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B215" t="s">
         <v>163</v>
@@ -7158,7 +7161,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B216" t="s">
         <v>312</v>
@@ -7172,7 +7175,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B217" t="s">
         <v>60</v>
@@ -7186,7 +7189,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B218" t="s">
         <v>492</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B219" t="s">
         <v>380</v>
@@ -7214,10 +7217,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B220" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C220" t="n">
         <v>2670</v>
@@ -7228,7 +7231,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B221" t="s">
         <v>150</v>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B222" t="s">
         <v>189</v>
@@ -7256,10 +7259,10 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B223" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C223" t="n">
         <v>2618</v>
@@ -7270,10 +7273,10 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B224" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C224" t="n">
         <v>2645</v>
@@ -7284,7 +7287,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B225" t="s">
         <v>431</v>
@@ -7298,7 +7301,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B226" t="s">
         <v>718</v>
@@ -7312,7 +7315,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B227" t="s">
         <v>96</v>
@@ -7326,7 +7329,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B228" t="s">
         <v>227</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B229" t="s">
         <v>123</v>
@@ -7354,10 +7357,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B230" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C230" t="n">
         <v>2645</v>
@@ -7368,7 +7371,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B231" t="s">
         <v>114</v>
@@ -7382,7 +7385,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B232" t="s">
         <v>565</v>
@@ -7396,10 +7399,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B233" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C233" t="n">
         <v>2621</v>
@@ -7410,10 +7413,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B234" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C234" t="n">
         <v>2655</v>
@@ -7424,7 +7427,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B235" t="s">
         <v>149</v>
@@ -7438,7 +7441,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B236" t="s">
         <v>216</v>
@@ -7452,7 +7455,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B237" t="s">
         <v>23</v>
@@ -7466,10 +7469,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B238" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C238" t="n">
         <v>2681</v>
@@ -7480,7 +7483,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B239" t="s">
         <v>199</v>
@@ -7494,10 +7497,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B240" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C240" t="n">
         <v>2581</v>
@@ -7508,7 +7511,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B241" t="s">
         <v>352</v>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B242" t="s">
         <v>220</v>
@@ -7536,7 +7539,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B243" t="s">
         <v>295</v>
@@ -7550,10 +7553,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B244" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C244" t="n">
         <v>2621</v>
@@ -7564,10 +7567,10 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B245" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C245" t="n">
         <v>2612</v>
@@ -7578,10 +7581,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B246" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C246" t="n">
         <v>2658</v>
@@ -7592,7 +7595,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B247" t="s">
         <v>641</v>
@@ -7606,7 +7609,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B248" t="s">
         <v>702</v>
@@ -7620,10 +7623,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B249" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C249" t="n">
         <v>2543</v>
@@ -7634,7 +7637,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B250" t="s">
         <v>598</v>
@@ -7648,10 +7651,10 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B251" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C251" t="n">
         <v>2661</v>
@@ -7662,10 +7665,10 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B252" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C252" t="n">
         <v>2642</v>
@@ -7676,7 +7679,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B253" t="s">
         <v>403</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B254" t="s">
         <v>51</v>
@@ -7704,7 +7707,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B255" t="s">
         <v>687</v>
@@ -7718,7 +7721,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B256" t="s">
         <v>767</v>
@@ -7732,10 +7735,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B257" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C257" t="n">
         <v>2606</v>
@@ -7746,7 +7749,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B258" t="s">
         <v>326</v>
@@ -7760,7 +7763,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B259" t="s">
         <v>62</v>
@@ -7774,7 +7777,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B260" t="s">
         <v>141</v>
@@ -7788,10 +7791,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B261" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C261" t="n">
         <v>2609</v>
@@ -7802,7 +7805,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B262" t="s">
         <v>274</v>
@@ -7816,10 +7819,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B263" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C263" t="n">
         <v>2597</v>
@@ -7830,7 +7833,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B264" t="s">
         <v>610</v>
@@ -7844,7 +7847,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B265" t="s">
         <v>741</v>
@@ -7858,7 +7861,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B266" t="s">
         <v>179</v>
@@ -7872,7 +7875,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B267" t="s">
         <v>219</v>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -7900,7 +7903,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B269" t="s">
         <v>364</v>
@@ -7914,7 +7917,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B270" t="s">
         <v>133</v>
@@ -7928,10 +7931,10 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B271" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C271" t="n">
         <v>2657</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B272" t="s">
         <v>9</v>
@@ -7956,10 +7959,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B273" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C273" t="n">
         <v>2585</v>
@@ -7970,7 +7973,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B274" t="s">
         <v>80</v>
@@ -7984,7 +7987,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B275" t="s">
         <v>660</v>
@@ -7998,10 +8001,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B276" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C276" t="n">
         <v>2641</v>
@@ -8012,7 +8015,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B277" t="s">
         <v>338</v>
@@ -8026,7 +8029,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B278" t="s">
         <v>118</v>
@@ -8040,10 +8043,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B279" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C279" t="n">
         <v>2622</v>
@@ -8054,10 +8057,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B280" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C280" t="n">
         <v>2639</v>
@@ -8068,10 +8071,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B281" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C281" t="n">
         <v>2607</v>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B282" t="s">
         <v>639</v>
@@ -8096,7 +8099,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
@@ -8110,7 +8113,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B284" t="s">
         <v>394</v>
@@ -8124,7 +8127,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B285" t="s">
         <v>322</v>
@@ -8138,7 +8141,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B286" t="s">
         <v>706</v>
@@ -8152,7 +8155,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B287" t="s">
         <v>790</v>
@@ -8166,10 +8169,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B288" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C288" t="n">
         <v>2615</v>
@@ -8180,7 +8183,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B289" t="s">
         <v>139</v>
@@ -8194,7 +8197,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B290" t="s">
         <v>238</v>
@@ -8208,7 +8211,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B291" t="s">
         <v>275</v>
@@ -8222,10 +8225,10 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B292" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C292" t="n">
         <v>2612</v>
@@ -8236,7 +8239,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B293" t="s">
         <v>464</v>
@@ -8250,7 +8253,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B294" t="s">
         <v>667</v>
@@ -8267,7 +8270,7 @@
         <v>784</v>
       </c>
       <c r="B295" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C295" t="n">
         <v>2175</v>
@@ -8309,7 +8312,7 @@
         <v>784</v>
       </c>
       <c r="B298" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C298" t="n">
         <v>2110</v>
@@ -8351,7 +8354,7 @@
         <v>784</v>
       </c>
       <c r="B301" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C301" t="n">
         <v>2163</v>
@@ -8379,7 +8382,7 @@
         <v>784</v>
       </c>
       <c r="B303" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C303" t="n">
         <v>2150</v>
@@ -8407,7 +8410,7 @@
         <v>784</v>
       </c>
       <c r="B305" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C305" t="n">
         <v>2135</v>
@@ -8421,7 +8424,7 @@
         <v>784</v>
       </c>
       <c r="B306" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C306" t="n">
         <v>2141</v>
@@ -8435,7 +8438,7 @@
         <v>784</v>
       </c>
       <c r="B307" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C307" t="n">
         <v>2122</v>
@@ -8449,7 +8452,7 @@
         <v>784</v>
       </c>
       <c r="B308" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C308" t="n">
         <v>2116</v>
@@ -8477,7 +8480,7 @@
         <v>784</v>
       </c>
       <c r="B310" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C310" t="n">
         <v>2126</v>
@@ -8491,7 +8494,7 @@
         <v>784</v>
       </c>
       <c r="B311" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C311" t="n">
         <v>2153</v>
@@ -8519,7 +8522,7 @@
         <v>784</v>
       </c>
       <c r="B313" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C313" t="n">
         <v>2144</v>
@@ -8589,7 +8592,7 @@
         <v>784</v>
       </c>
       <c r="B318" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C318" t="n">
         <v>2143</v>
@@ -8659,7 +8662,7 @@
         <v>784</v>
       </c>
       <c r="B323" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C323" t="n">
         <v>2131</v>
@@ -8687,7 +8690,7 @@
         <v>784</v>
       </c>
       <c r="B325" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C325" t="n">
         <v>2167</v>
@@ -8715,7 +8718,7 @@
         <v>784</v>
       </c>
       <c r="B327" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C327" t="n">
         <v>2136</v>
@@ -8729,7 +8732,7 @@
         <v>784</v>
       </c>
       <c r="B328" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C328" t="n">
         <v>2103</v>
@@ -8743,7 +8746,7 @@
         <v>784</v>
       </c>
       <c r="B329" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C329" t="n">
         <v>2174</v>
@@ -8785,7 +8788,7 @@
         <v>784</v>
       </c>
       <c r="B332" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C332" t="n">
         <v>2093</v>
@@ -8799,7 +8802,7 @@
         <v>784</v>
       </c>
       <c r="B333" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C333" t="n">
         <v>2111</v>
@@ -8855,7 +8858,7 @@
         <v>784</v>
       </c>
       <c r="B337" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C337" t="n">
         <v>2134</v>
@@ -8869,7 +8872,7 @@
         <v>784</v>
       </c>
       <c r="B338" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C338" t="n">
         <v>2120</v>
@@ -8897,7 +8900,7 @@
         <v>784</v>
       </c>
       <c r="B340" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C340" t="n">
         <v>2101</v>
@@ -8911,7 +8914,7 @@
         <v>784</v>
       </c>
       <c r="B341" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C341" t="n">
         <v>2149</v>
@@ -8953,7 +8956,7 @@
         <v>784</v>
       </c>
       <c r="B344" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C344" t="n">
         <v>2135</v>
@@ -8967,7 +8970,7 @@
         <v>784</v>
       </c>
       <c r="B345" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C345" t="n">
         <v>2175</v>
@@ -8995,7 +8998,7 @@
         <v>784</v>
       </c>
       <c r="B347" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C347" t="n">
         <v>2117</v>
@@ -9009,7 +9012,7 @@
         <v>784</v>
       </c>
       <c r="B348" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C348" t="n">
         <v>2116</v>
@@ -9093,7 +9096,7 @@
         <v>784</v>
       </c>
       <c r="B354" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C354" t="n">
         <v>2134</v>
@@ -9121,7 +9124,7 @@
         <v>784</v>
       </c>
       <c r="B356" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C356" t="n">
         <v>2107</v>
@@ -9163,7 +9166,7 @@
         <v>784</v>
       </c>
       <c r="B359" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C359" t="n">
         <v>2161</v>
@@ -9205,7 +9208,7 @@
         <v>784</v>
       </c>
       <c r="B362" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C362" t="n">
         <v>2153</v>
@@ -9219,7 +9222,7 @@
         <v>784</v>
       </c>
       <c r="B363" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C363" t="n">
         <v>2146</v>
@@ -9247,7 +9250,7 @@
         <v>784</v>
       </c>
       <c r="B365" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C365" t="n">
         <v>2143</v>
@@ -9289,7 +9292,7 @@
         <v>784</v>
       </c>
       <c r="B368" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C368" t="n">
         <v>2133</v>
@@ -9345,7 +9348,7 @@
         <v>784</v>
       </c>
       <c r="B372" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C372" t="n">
         <v>2170</v>
@@ -9359,7 +9362,7 @@
         <v>784</v>
       </c>
       <c r="B373" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C373" t="n">
         <v>2146</v>
@@ -9373,7 +9376,7 @@
         <v>784</v>
       </c>
       <c r="B374" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C374" t="n">
         <v>2134</v>
@@ -9387,7 +9390,7 @@
         <v>784</v>
       </c>
       <c r="B375" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C375" t="n">
         <v>2126</v>
@@ -9499,7 +9502,7 @@
         <v>784</v>
       </c>
       <c r="B383" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C383" t="n">
         <v>2084</v>
@@ -9513,7 +9516,7 @@
         <v>784</v>
       </c>
       <c r="B384" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C384" t="n">
         <v>2146</v>
@@ -9527,7 +9530,7 @@
         <v>784</v>
       </c>
       <c r="B385" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C385" t="n">
         <v>2135</v>
@@ -9569,7 +9572,7 @@
         <v>784</v>
       </c>
       <c r="B388" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C388" t="n">
         <v>2129</v>
@@ -9583,7 +9586,7 @@
         <v>784</v>
       </c>
       <c r="B389" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C389" t="n">
         <v>2098</v>
@@ -9695,7 +9698,7 @@
         <v>784</v>
       </c>
       <c r="B397" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C397" t="n">
         <v>2122</v>
@@ -9723,7 +9726,7 @@
         <v>784</v>
       </c>
       <c r="B399" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C399" t="n">
         <v>2172</v>
@@ -9765,7 +9768,7 @@
         <v>784</v>
       </c>
       <c r="B402" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C402" t="n">
         <v>2135</v>
@@ -9793,7 +9796,7 @@
         <v>784</v>
       </c>
       <c r="B404" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C404" t="n">
         <v>2130</v>
@@ -9821,7 +9824,7 @@
         <v>784</v>
       </c>
       <c r="B406" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C406" t="n">
         <v>2094</v>
@@ -9835,7 +9838,7 @@
         <v>784</v>
       </c>
       <c r="B407" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C407" t="n">
         <v>2113</v>
@@ -9849,7 +9852,7 @@
         <v>784</v>
       </c>
       <c r="B408" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C408" t="n">
         <v>2106</v>
@@ -9919,7 +9922,7 @@
         <v>784</v>
       </c>
       <c r="B413" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C413" t="n">
         <v>2186</v>
@@ -9947,7 +9950,7 @@
         <v>784</v>
       </c>
       <c r="B415" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C415" t="n">
         <v>2161</v>
@@ -9961,7 +9964,7 @@
         <v>784</v>
       </c>
       <c r="B416" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C416" t="n">
         <v>2140</v>
@@ -10129,7 +10132,7 @@
         <v>784</v>
       </c>
       <c r="B428" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C428" t="n">
         <v>2116</v>
@@ -10157,7 +10160,7 @@
         <v>784</v>
       </c>
       <c r="B430" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C430" t="n">
         <v>2088</v>
@@ -10171,7 +10174,7 @@
         <v>784</v>
       </c>
       <c r="B431" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C431" t="n">
         <v>2129</v>
@@ -10199,7 +10202,7 @@
         <v>784</v>
       </c>
       <c r="B433" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C433" t="n">
         <v>2120</v>
@@ -10269,7 +10272,7 @@
         <v>784</v>
       </c>
       <c r="B438" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C438" t="n">
         <v>2146</v>
@@ -10297,7 +10300,7 @@
         <v>784</v>
       </c>
       <c r="B440" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C440" t="n">
         <v>2117</v>
@@ -10311,7 +10314,7 @@
         <v>784</v>
       </c>
       <c r="B441" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C441" t="n">
         <v>2128</v>
@@ -10409,7 +10412,7 @@
         <v>784</v>
       </c>
       <c r="B448" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C448" t="n">
         <v>2133</v>
@@ -10423,7 +10426,7 @@
         <v>784</v>
       </c>
       <c r="B449" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C449" t="n">
         <v>2114</v>
@@ -10479,7 +10482,7 @@
         <v>784</v>
       </c>
       <c r="B453" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C453" t="n">
         <v>2118</v>
@@ -10493,7 +10496,7 @@
         <v>784</v>
       </c>
       <c r="B454" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C454" t="n">
         <v>2145</v>
@@ -10521,7 +10524,7 @@
         <v>784</v>
       </c>
       <c r="B456" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C456" t="n">
         <v>2142</v>
@@ -10563,7 +10566,7 @@
         <v>784</v>
       </c>
       <c r="B459" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C459" t="n">
         <v>2182</v>
@@ -10591,7 +10594,7 @@
         <v>784</v>
       </c>
       <c r="B461" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C461" t="n">
         <v>2125</v>
@@ -10605,7 +10608,7 @@
         <v>784</v>
       </c>
       <c r="B462" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C462" t="n">
         <v>2198</v>
@@ -10689,7 +10692,7 @@
         <v>784</v>
       </c>
       <c r="B468" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C468" t="n">
         <v>2127</v>
@@ -10731,7 +10734,7 @@
         <v>784</v>
       </c>
       <c r="B471" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C471" t="n">
         <v>2111</v>
@@ -10745,7 +10748,7 @@
         <v>784</v>
       </c>
       <c r="B472" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C472" t="n">
         <v>2174</v>
@@ -10787,7 +10790,7 @@
         <v>784</v>
       </c>
       <c r="B475" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C475" t="n">
         <v>2121</v>
@@ -10801,7 +10804,7 @@
         <v>784</v>
       </c>
       <c r="B476" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C476" t="n">
         <v>2185</v>
@@ -10815,7 +10818,7 @@
         <v>784</v>
       </c>
       <c r="B477" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C477" t="n">
         <v>2156</v>
@@ -10871,7 +10874,7 @@
         <v>784</v>
       </c>
       <c r="B481" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C481" t="n">
         <v>2132</v>
@@ -10899,7 +10902,7 @@
         <v>784</v>
       </c>
       <c r="B483" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C483" t="n">
         <v>2107</v>
@@ -10913,7 +10916,7 @@
         <v>784</v>
       </c>
       <c r="B484" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C484" t="n">
         <v>2152</v>
@@ -10997,7 +11000,7 @@
         <v>784</v>
       </c>
       <c r="B490" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C490" t="n">
         <v>2128</v>
@@ -11011,7 +11014,7 @@
         <v>784</v>
       </c>
       <c r="B491" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C491" t="n">
         <v>2094</v>
@@ -11081,7 +11084,7 @@
         <v>784</v>
       </c>
       <c r="B496" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C496" t="n">
         <v>2130</v>
@@ -11123,7 +11126,7 @@
         <v>784</v>
       </c>
       <c r="B499" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C499" t="n">
         <v>2138</v>
@@ -11151,7 +11154,7 @@
         <v>784</v>
       </c>
       <c r="B501" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C501" t="n">
         <v>2090</v>
@@ -11221,7 +11224,7 @@
         <v>784</v>
       </c>
       <c r="B506" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C506" t="n">
         <v>2162</v>
@@ -11277,7 +11280,7 @@
         <v>784</v>
       </c>
       <c r="B510" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C510" t="n">
         <v>2137</v>
@@ -11291,7 +11294,7 @@
         <v>784</v>
       </c>
       <c r="B511" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C511" t="n">
         <v>2149</v>
@@ -11319,7 +11322,7 @@
         <v>784</v>
       </c>
       <c r="B513" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C513" t="n">
         <v>2110</v>
@@ -11473,7 +11476,7 @@
         <v>784</v>
       </c>
       <c r="B524" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C524" t="n">
         <v>2124</v>
@@ -11501,7 +11504,7 @@
         <v>784</v>
       </c>
       <c r="B526" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C526" t="n">
         <v>2105</v>
@@ -11543,7 +11546,7 @@
         <v>784</v>
       </c>
       <c r="B529" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C529" t="n">
         <v>2133</v>
@@ -11557,7 +11560,7 @@
         <v>784</v>
       </c>
       <c r="B530" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C530" t="n">
         <v>2082</v>
@@ -11571,7 +11574,7 @@
         <v>784</v>
       </c>
       <c r="B531" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C531" t="n">
         <v>2173</v>
@@ -11585,7 +11588,7 @@
         <v>784</v>
       </c>
       <c r="B532" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C532" t="n">
         <v>2091</v>
@@ -11627,7 +11630,7 @@
         <v>784</v>
       </c>
       <c r="B535" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C535" t="n">
         <v>2107</v>
@@ -11641,7 +11644,7 @@
         <v>784</v>
       </c>
       <c r="B536" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C536" t="n">
         <v>2148</v>
@@ -11697,7 +11700,7 @@
         <v>784</v>
       </c>
       <c r="B540" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C540" t="n">
         <v>2100</v>
@@ -11753,7 +11756,7 @@
         <v>784</v>
       </c>
       <c r="B544" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C544" t="n">
         <v>2118</v>
@@ -11837,7 +11840,7 @@
         <v>784</v>
       </c>
       <c r="B550" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C550" t="n">
         <v>2177</v>
@@ -11907,7 +11910,7 @@
         <v>784</v>
       </c>
       <c r="B555" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C555" t="n">
         <v>2120</v>
@@ -12089,7 +12092,7 @@
         <v>784</v>
       </c>
       <c r="B568" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C568" t="n">
         <v>2096</v>
@@ -12103,7 +12106,7 @@
         <v>784</v>
       </c>
       <c r="B569" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C569" t="n">
         <v>2127</v>
@@ -12117,7 +12120,7 @@
         <v>784</v>
       </c>
       <c r="B570" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C570" t="n">
         <v>2086</v>
@@ -12131,7 +12134,7 @@
         <v>784</v>
       </c>
       <c r="B571" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C571" t="n">
         <v>2133</v>
@@ -12145,7 +12148,7 @@
         <v>784</v>
       </c>
       <c r="B572" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C572" t="n">
         <v>2145</v>
@@ -12159,7 +12162,7 @@
         <v>784</v>
       </c>
       <c r="B573" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C573" t="n">
         <v>2061</v>
@@ -12201,7 +12204,7 @@
         <v>784</v>
       </c>
       <c r="B576" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C576" t="n">
         <v>2172</v>
@@ -12215,7 +12218,7 @@
         <v>784</v>
       </c>
       <c r="B577" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C577" t="n">
         <v>2053</v>
@@ -12243,7 +12246,7 @@
         <v>784</v>
       </c>
       <c r="B579" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C579" t="n">
         <v>2098</v>
@@ -12257,7 +12260,7 @@
         <v>784</v>
       </c>
       <c r="B580" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C580" t="n">
         <v>2094</v>
@@ -12299,7 +12302,7 @@
         <v>784</v>
       </c>
       <c r="B583" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C583" t="n">
         <v>2103</v>
@@ -12313,7 +12316,7 @@
         <v>784</v>
       </c>
       <c r="B584" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C584" t="n">
         <v>2108</v>
@@ -12355,7 +12358,7 @@
         <v>784</v>
       </c>
       <c r="B587" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C587" t="n">
         <v>2137</v>
@@ -12394,7 +12397,7 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B590" t="s">
         <v>341</v>
@@ -12408,7 +12411,7 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B591" t="s">
         <v>291</v>
@@ -12422,10 +12425,10 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B592" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C592" t="n">
         <v>5395</v>
@@ -12436,10 +12439,10 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B593" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C593" t="n">
         <v>5330</v>
@@ -12450,7 +12453,7 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B594" t="s">
         <v>257</v>
@@ -12464,10 +12467,10 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B595" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C595" t="n">
         <v>5412</v>
@@ -12478,10 +12481,10 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B596" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C596" t="n">
         <v>5346</v>
@@ -12492,10 +12495,10 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B597" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C597" t="n">
         <v>5385</v>
@@ -12506,7 +12509,7 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B598" t="s">
         <v>232</v>
@@ -12520,7 +12523,7 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B599" t="s">
         <v>38</v>
@@ -12534,10 +12537,10 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B600" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C600" t="n">
         <v>5388</v>
@@ -12548,7 +12551,7 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B601" t="s">
         <v>579</v>
@@ -12562,7 +12565,7 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B602" t="s">
         <v>377</v>
@@ -12576,10 +12579,10 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B603" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C603" t="n">
         <v>5374</v>
@@ -12590,7 +12593,7 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B604" t="s">
         <v>393</v>
@@ -12604,10 +12607,10 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B605" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C605" t="n">
         <v>5404</v>
@@ -12618,7 +12621,7 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B606" t="s">
         <v>390</v>
@@ -12632,7 +12635,7 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B607" t="s">
         <v>202</v>
@@ -12646,10 +12649,10 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B608" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C608" t="n">
         <v>5364</v>
@@ -12660,7 +12663,7 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B609" t="s">
         <v>761</v>
@@ -12674,10 +12677,10 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B610" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C610" t="n">
         <v>5352</v>
@@ -12688,7 +12691,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B611" t="s">
         <v>576</v>
@@ -12702,7 +12705,7 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B612" t="s">
         <v>433</v>
@@ -12716,10 +12719,10 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B613" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C613" t="n">
         <v>5408</v>
@@ -12730,7 +12733,7 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B614" t="s">
         <v>174</v>
@@ -12744,7 +12747,7 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B615" t="s">
         <v>754</v>
@@ -12758,7 +12761,7 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B616" t="s">
         <v>787</v>
@@ -12772,7 +12775,7 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B617" t="s">
         <v>91</v>
@@ -12786,10 +12789,10 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B618" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C618" t="n">
         <v>5380</v>
@@ -12800,7 +12803,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B619" t="s">
         <v>44</v>
@@ -12814,7 +12817,7 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B620" t="s">
         <v>392</v>
@@ -12828,7 +12831,7 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B621" t="s">
         <v>809</v>
@@ -12842,7 +12845,7 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B622" t="s">
         <v>721</v>
@@ -12856,7 +12859,7 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B623" t="s">
         <v>108</v>
@@ -12870,10 +12873,10 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B624" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C624" t="n">
         <v>5282</v>
@@ -12884,7 +12887,7 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B625" t="s">
         <v>520</v>
@@ -12898,7 +12901,7 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B626" t="s">
         <v>71</v>
@@ -12912,7 +12915,7 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B627" t="s">
         <v>164</v>
@@ -12926,10 +12929,10 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B628" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C628" t="n">
         <v>5327</v>
@@ -12940,10 +12943,10 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B629" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C629" t="n">
         <v>5229</v>
@@ -12954,7 +12957,7 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B630" t="s">
         <v>692</v>
@@ -12968,7 +12971,7 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B631" t="s">
         <v>358</v>
@@ -12982,7 +12985,7 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B632" t="s">
         <v>406</v>
@@ -12996,7 +12999,7 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B633" t="s">
         <v>619</v>
@@ -13010,10 +13013,10 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B634" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C634" t="n">
         <v>5393</v>
@@ -13024,10 +13027,10 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B635" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C635" t="n">
         <v>5322</v>
@@ -13038,10 +13041,10 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B636" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C636" t="n">
         <v>5299</v>
@@ -13052,7 +13055,7 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B637" t="s">
         <v>405</v>
@@ -13066,7 +13069,7 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B638" t="s">
         <v>620</v>
@@ -13080,7 +13083,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B639" t="s">
         <v>574</v>
@@ -13094,7 +13097,7 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B640" t="s">
         <v>167</v>
@@ -13108,7 +13111,7 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B641" t="s">
         <v>458</v>
@@ -13122,10 +13125,10 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B642" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C642" t="n">
         <v>5352</v>
@@ -13136,7 +13139,7 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B643" t="s">
         <v>502</v>
@@ -13150,7 +13153,7 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B644" t="s">
         <v>410</v>
@@ -13164,7 +13167,7 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B645" t="s">
         <v>413</v>
@@ -13178,7 +13181,7 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B646" t="s">
         <v>153</v>
@@ -13192,7 +13195,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B647" t="s">
         <v>334</v>
@@ -13206,10 +13209,10 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B648" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C648" t="n">
         <v>5367</v>
@@ -13220,7 +13223,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B649" t="s">
         <v>740</v>
@@ -13234,10 +13237,10 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B650" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C650" t="n">
         <v>5409</v>
@@ -13265,7 +13268,7 @@
         <v>557</v>
       </c>
       <c r="B652" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C652" t="n">
         <v>917</v>
@@ -13349,7 +13352,7 @@
         <v>557</v>
       </c>
       <c r="B658" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C658" t="n">
         <v>916</v>
@@ -13405,7 +13408,7 @@
         <v>557</v>
       </c>
       <c r="B662" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C662" t="n">
         <v>923</v>
@@ -13475,7 +13478,7 @@
         <v>557</v>
       </c>
       <c r="B667" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C667" t="n">
         <v>925</v>
@@ -13573,7 +13576,7 @@
         <v>557</v>
       </c>
       <c r="B674" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C674" t="n">
         <v>917</v>
@@ -13615,7 +13618,7 @@
         <v>557</v>
       </c>
       <c r="B677" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C677" t="n">
         <v>913</v>
@@ -13657,7 +13660,7 @@
         <v>557</v>
       </c>
       <c r="B680" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C680" t="n">
         <v>919</v>
@@ -13671,7 +13674,7 @@
         <v>557</v>
       </c>
       <c r="B681" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C681" t="n">
         <v>926</v>
@@ -13713,7 +13716,7 @@
         <v>557</v>
       </c>
       <c r="B684" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C684" t="n">
         <v>916</v>
@@ -13769,7 +13772,7 @@
         <v>557</v>
       </c>
       <c r="B688" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C688" t="n">
         <v>923</v>
@@ -13783,7 +13786,7 @@
         <v>557</v>
       </c>
       <c r="B689" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C689" t="n">
         <v>906</v>
@@ -13797,7 +13800,7 @@
         <v>557</v>
       </c>
       <c r="B690" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C690" t="n">
         <v>920</v>
@@ -13867,7 +13870,7 @@
         <v>557</v>
       </c>
       <c r="B695" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C695" t="n">
         <v>928</v>
@@ -13881,7 +13884,7 @@
         <v>557</v>
       </c>
       <c r="B696" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C696" t="n">
         <v>926</v>
@@ -13909,7 +13912,7 @@
         <v>557</v>
       </c>
       <c r="B698" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C698" t="n">
         <v>917</v>
@@ -14007,7 +14010,7 @@
         <v>557</v>
       </c>
       <c r="B705" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C705" t="n">
         <v>927</v>
@@ -14091,7 +14094,7 @@
         <v>557</v>
       </c>
       <c r="B711" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C711" t="n">
         <v>913</v>
@@ -14133,7 +14136,7 @@
         <v>557</v>
       </c>
       <c r="B714" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C714" t="n">
         <v>916</v>
@@ -14161,7 +14164,7 @@
         <v>557</v>
       </c>
       <c r="B716" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C716" t="n">
         <v>911</v>
@@ -14175,7 +14178,7 @@
         <v>557</v>
       </c>
       <c r="B717" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C717" t="n">
         <v>920</v>
@@ -14231,7 +14234,7 @@
         <v>557</v>
       </c>
       <c r="B721" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C721" t="n">
         <v>910</v>
@@ -14287,7 +14290,7 @@
         <v>557</v>
       </c>
       <c r="B725" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C725" t="n">
         <v>922</v>
@@ -14315,7 +14318,7 @@
         <v>557</v>
       </c>
       <c r="B727" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C727" t="n">
         <v>934</v>
@@ -14371,7 +14374,7 @@
         <v>557</v>
       </c>
       <c r="B731" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C731" t="n">
         <v>908</v>
@@ -14399,7 +14402,7 @@
         <v>557</v>
       </c>
       <c r="B733" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C733" t="n">
         <v>911</v>
@@ -14469,7 +14472,7 @@
         <v>557</v>
       </c>
       <c r="B738" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C738" t="n">
         <v>917</v>
@@ -14525,7 +14528,7 @@
         <v>557</v>
       </c>
       <c r="B742" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C742" t="n">
         <v>912</v>
@@ -14595,7 +14598,7 @@
         <v>557</v>
       </c>
       <c r="B747" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C747" t="n">
         <v>924</v>
@@ -14609,7 +14612,7 @@
         <v>557</v>
       </c>
       <c r="B748" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C748" t="n">
         <v>917</v>
@@ -14623,7 +14626,7 @@
         <v>557</v>
       </c>
       <c r="B749" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C749" t="n">
         <v>929</v>
@@ -14665,7 +14668,7 @@
         <v>557</v>
       </c>
       <c r="B752" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C752" t="n">
         <v>894</v>
@@ -14679,7 +14682,7 @@
         <v>557</v>
       </c>
       <c r="B753" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C753" t="n">
         <v>931</v>
@@ -14693,7 +14696,7 @@
         <v>557</v>
       </c>
       <c r="B754" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C754" t="n">
         <v>911</v>
@@ -14707,7 +14710,7 @@
         <v>557</v>
       </c>
       <c r="B755" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C755" t="n">
         <v>917</v>
@@ -14791,7 +14794,7 @@
         <v>557</v>
       </c>
       <c r="B761" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C761" t="n">
         <v>916</v>
@@ -14805,7 +14808,7 @@
         <v>557</v>
       </c>
       <c r="B762" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C762" t="n">
         <v>916</v>
@@ -14889,7 +14892,7 @@
         <v>557</v>
       </c>
       <c r="B768" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C768" t="n">
         <v>855</v>
@@ -14903,7 +14906,7 @@
         <v>557</v>
       </c>
       <c r="B769" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C769" t="n">
         <v>795</v>
@@ -14931,7 +14934,7 @@
         <v>557</v>
       </c>
       <c r="B771" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C771" t="n">
         <v>866</v>
@@ -14959,7 +14962,7 @@
         <v>557</v>
       </c>
       <c r="B773" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C773" t="n">
         <v>853</v>
@@ -15001,7 +15004,7 @@
         <v>557</v>
       </c>
       <c r="B776" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C776" t="n">
         <v>863</v>
@@ -15043,7 +15046,7 @@
         <v>557</v>
       </c>
       <c r="B779" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C779" t="n">
         <v>856</v>
@@ -15071,7 +15074,7 @@
         <v>557</v>
       </c>
       <c r="B781" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C781" t="n">
         <v>884</v>
@@ -15113,7 +15116,7 @@
         <v>557</v>
       </c>
       <c r="B784" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C784" t="n">
         <v>906</v>
@@ -15127,7 +15130,7 @@
         <v>557</v>
       </c>
       <c r="B785" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C785" t="n">
         <v>939</v>
@@ -15141,7 +15144,7 @@
         <v>557</v>
       </c>
       <c r="B786" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C786" t="n">
         <v>869</v>
@@ -15155,7 +15158,7 @@
         <v>557</v>
       </c>
       <c r="B787" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C787" t="n">
         <v>849</v>
@@ -15197,7 +15200,7 @@
         <v>557</v>
       </c>
       <c r="B790" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C790" t="n">
         <v>839</v>
@@ -15211,7 +15214,7 @@
         <v>557</v>
       </c>
       <c r="B791" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C791" t="n">
         <v>828</v>
@@ -15225,7 +15228,7 @@
         <v>557</v>
       </c>
       <c r="B792" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C792" t="n">
         <v>888</v>
@@ -15295,7 +15298,7 @@
         <v>557</v>
       </c>
       <c r="B797" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C797" t="n">
         <v>838</v>
@@ -15379,7 +15382,7 @@
         <v>557</v>
       </c>
       <c r="B803" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C803" t="n">
         <v>901</v>
@@ -15393,7 +15396,7 @@
         <v>557</v>
       </c>
       <c r="B804" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C804" t="n">
         <v>861</v>
@@ -15463,7 +15466,7 @@
         <v>557</v>
       </c>
       <c r="B809" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C809" t="n">
         <v>869</v>
@@ -15477,7 +15480,7 @@
         <v>557</v>
       </c>
       <c r="B810" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C810" t="n">
         <v>884</v>
@@ -15519,7 +15522,7 @@
         <v>557</v>
       </c>
       <c r="B813" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C813" t="n">
         <v>880</v>
@@ -15547,7 +15550,7 @@
         <v>557</v>
       </c>
       <c r="B815" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C815" t="n">
         <v>900</v>
@@ -15561,7 +15564,7 @@
         <v>557</v>
       </c>
       <c r="B816" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C816" t="n">
         <v>899</v>
@@ -15603,7 +15606,7 @@
         <v>557</v>
       </c>
       <c r="B819" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C819" t="n">
         <v>880</v>
@@ -15659,7 +15662,7 @@
         <v>557</v>
       </c>
       <c r="B823" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C823" t="n">
         <v>843</v>
@@ -15673,7 +15676,7 @@
         <v>557</v>
       </c>
       <c r="B824" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C824" t="n">
         <v>852</v>
@@ -15813,7 +15816,7 @@
         <v>557</v>
       </c>
       <c r="B834" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C834" t="n">
         <v>891</v>
@@ -15883,7 +15886,7 @@
         <v>557</v>
       </c>
       <c r="B839" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C839" t="n">
         <v>898</v>
@@ -16023,7 +16026,7 @@
         <v>557</v>
       </c>
       <c r="B849" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C849" t="n">
         <v>889</v>
@@ -16037,7 +16040,7 @@
         <v>557</v>
       </c>
       <c r="B850" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C850" t="n">
         <v>871</v>
@@ -16051,7 +16054,7 @@
         <v>557</v>
       </c>
       <c r="B851" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C851" t="n">
         <v>907</v>
@@ -16121,7 +16124,7 @@
         <v>557</v>
       </c>
       <c r="B856" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C856" t="n">
         <v>873</v>
@@ -16135,7 +16138,7 @@
         <v>557</v>
       </c>
       <c r="B857" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C857" t="n">
         <v>909</v>
@@ -16149,7 +16152,7 @@
         <v>557</v>
       </c>
       <c r="B858" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C858" t="n">
         <v>864</v>
@@ -16163,7 +16166,7 @@
         <v>557</v>
       </c>
       <c r="B859" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C859" t="n">
         <v>885</v>
@@ -16177,7 +16180,7 @@
         <v>557</v>
       </c>
       <c r="B860" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C860" t="n">
         <v>873</v>
@@ -16191,7 +16194,7 @@
         <v>557</v>
       </c>
       <c r="B861" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C861" t="n">
         <v>826</v>
@@ -16219,7 +16222,7 @@
         <v>557</v>
       </c>
       <c r="B863" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C863" t="n">
         <v>902</v>
@@ -16233,7 +16236,7 @@
         <v>557</v>
       </c>
       <c r="B864" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C864" t="n">
         <v>856</v>
@@ -16247,7 +16250,7 @@
         <v>557</v>
       </c>
       <c r="B865" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C865" t="n">
         <v>870</v>
@@ -16303,7 +16306,7 @@
         <v>557</v>
       </c>
       <c r="B869" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C869" t="n">
         <v>861</v>
@@ -16387,7 +16390,7 @@
         <v>557</v>
       </c>
       <c r="B875" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C875" t="n">
         <v>829</v>
@@ -16415,7 +16418,7 @@
         <v>557</v>
       </c>
       <c r="B877" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C877" t="n">
         <v>869</v>
@@ -16429,7 +16432,7 @@
         <v>557</v>
       </c>
       <c r="B878" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C878" t="n">
         <v>878</v>
@@ -16471,7 +16474,7 @@
         <v>557</v>
       </c>
       <c r="B881" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C881" t="n">
         <v>881</v>
@@ -16485,7 +16488,7 @@
         <v>557</v>
       </c>
       <c r="B882" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C882" t="n">
         <v>879</v>
@@ -16527,7 +16530,7 @@
         <v>557</v>
       </c>
       <c r="B885" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C885" t="n">
         <v>868</v>
@@ -16541,7 +16544,7 @@
         <v>557</v>
       </c>
       <c r="B886" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C886" t="n">
         <v>874</v>
@@ -16569,7 +16572,7 @@
         <v>557</v>
       </c>
       <c r="B888" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C888" t="n">
         <v>875</v>
@@ -16695,7 +16698,7 @@
         <v>557</v>
       </c>
       <c r="B897" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C897" t="n">
         <v>851</v>
@@ -16737,7 +16740,7 @@
         <v>557</v>
       </c>
       <c r="B900" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C900" t="n">
         <v>817</v>
@@ -16765,7 +16768,7 @@
         <v>557</v>
       </c>
       <c r="B902" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C902" t="n">
         <v>867</v>
@@ -16779,7 +16782,7 @@
         <v>557</v>
       </c>
       <c r="B903" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C903" t="n">
         <v>874</v>
@@ -16807,7 +16810,7 @@
         <v>557</v>
       </c>
       <c r="B905" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C905" t="n">
         <v>858</v>
@@ -16835,7 +16838,7 @@
         <v>557</v>
       </c>
       <c r="B907" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C907" t="n">
         <v>846</v>
@@ -16849,7 +16852,7 @@
         <v>557</v>
       </c>
       <c r="B908" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C908" t="n">
         <v>835</v>
@@ -16933,7 +16936,7 @@
         <v>557</v>
       </c>
       <c r="B914" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C914" t="n">
         <v>860</v>
@@ -16975,7 +16978,7 @@
         <v>557</v>
       </c>
       <c r="B917" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C917" t="n">
         <v>898</v>
@@ -16989,7 +16992,7 @@
         <v>557</v>
       </c>
       <c r="B918" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C918" t="n">
         <v>868</v>
@@ -17017,7 +17020,7 @@
         <v>557</v>
       </c>
       <c r="B920" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C920" t="n">
         <v>888</v>
@@ -17157,7 +17160,7 @@
         <v>557</v>
       </c>
       <c r="B930" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C930" t="n">
         <v>893</v>
@@ -17255,7 +17258,7 @@
         <v>557</v>
       </c>
       <c r="B937" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C937" t="n">
         <v>839</v>
@@ -17283,7 +17286,7 @@
         <v>557</v>
       </c>
       <c r="B939" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C939" t="n">
         <v>888</v>
@@ -17297,7 +17300,7 @@
         <v>557</v>
       </c>
       <c r="B940" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C940" t="n">
         <v>932</v>
@@ -17339,7 +17342,7 @@
         <v>557</v>
       </c>
       <c r="B943" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C943" t="n">
         <v>890</v>
@@ -17423,7 +17426,7 @@
         <v>594</v>
       </c>
       <c r="B949" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C949" t="n">
         <v>956</v>
@@ -17437,7 +17440,7 @@
         <v>594</v>
       </c>
       <c r="B950" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C950" t="n">
         <v>941</v>
@@ -17507,7 +17510,7 @@
         <v>594</v>
       </c>
       <c r="B955" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C955" t="n">
         <v>917</v>
@@ -17521,7 +17524,7 @@
         <v>594</v>
       </c>
       <c r="B956" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C956" t="n">
         <v>874</v>
@@ -17535,7 +17538,7 @@
         <v>594</v>
       </c>
       <c r="B957" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C957" t="n">
         <v>915</v>
@@ -17591,7 +17594,7 @@
         <v>594</v>
       </c>
       <c r="B961" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C961" t="n">
         <v>912</v>
@@ -17619,7 +17622,7 @@
         <v>594</v>
       </c>
       <c r="B963" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C963" t="n">
         <v>889</v>
@@ -17647,7 +17650,7 @@
         <v>594</v>
       </c>
       <c r="B965" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C965" t="n">
         <v>893</v>
@@ -17661,7 +17664,7 @@
         <v>594</v>
       </c>
       <c r="B966" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C966" t="n">
         <v>889</v>
@@ -17675,7 +17678,7 @@
         <v>594</v>
       </c>
       <c r="B967" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C967" t="n">
         <v>910</v>
@@ -17689,7 +17692,7 @@
         <v>594</v>
       </c>
       <c r="B968" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C968" t="n">
         <v>936</v>
@@ -17731,7 +17734,7 @@
         <v>594</v>
       </c>
       <c r="B971" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C971" t="n">
         <v>932</v>
@@ -17787,7 +17790,7 @@
         <v>594</v>
       </c>
       <c r="B975" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C975" t="n">
         <v>911</v>
@@ -17826,10 +17829,10 @@
     </row>
     <row r="978" spans="1:4">
       <c r="A978" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B978" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C978" t="n">
         <v>826</v>
@@ -17840,7 +17843,7 @@
     </row>
     <row r="979" spans="1:4">
       <c r="A979" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B979" t="s">
         <v>451</v>
@@ -17854,7 +17857,7 @@
     </row>
     <row r="980" spans="1:4">
       <c r="A980" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B980" t="s">
         <v>61</v>
@@ -17868,10 +17871,10 @@
     </row>
     <row r="981" spans="1:4">
       <c r="A981" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B981" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C981" t="n">
         <v>832</v>
@@ -17882,7 +17885,7 @@
     </row>
     <row r="982" spans="1:4">
       <c r="A982" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B982" t="s">
         <v>467</v>
@@ -17896,7 +17899,7 @@
     </row>
     <row r="983" spans="1:4">
       <c r="A983" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B983" t="s">
         <v>550</v>
@@ -17910,10 +17913,10 @@
     </row>
     <row r="984" spans="1:4">
       <c r="A984" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B984" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C984" t="n">
         <v>768</v>
@@ -17924,10 +17927,10 @@
     </row>
     <row r="985" spans="1:4">
       <c r="A985" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B985" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C985" t="n">
         <v>820</v>
@@ -17938,7 +17941,7 @@
     </row>
     <row r="986" spans="1:4">
       <c r="A986" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B986" t="s">
         <v>159</v>
@@ -17952,7 +17955,7 @@
     </row>
     <row r="987" spans="1:4">
       <c r="A987" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B987" t="s">
         <v>683</v>
@@ -17966,7 +17969,7 @@
     </row>
     <row r="988" spans="1:4">
       <c r="A988" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B988" t="s">
         <v>432</v>
@@ -17980,7 +17983,7 @@
     </row>
     <row r="989" spans="1:4">
       <c r="A989" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B989" t="s">
         <v>75</v>
@@ -17994,7 +17997,7 @@
     </row>
     <row r="990" spans="1:4">
       <c r="A990" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B990" t="s">
         <v>729</v>
@@ -18008,7 +18011,7 @@
     </row>
     <row r="991" spans="1:4">
       <c r="A991" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B991" t="s">
         <v>207</v>
@@ -18022,7 +18025,7 @@
     </row>
     <row r="992" spans="1:4">
       <c r="A992" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B992" t="s">
         <v>95</v>
@@ -18036,7 +18039,7 @@
     </row>
     <row r="993" spans="1:4">
       <c r="A993" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B993" t="s">
         <v>270</v>
@@ -18050,7 +18053,7 @@
     </row>
     <row r="994" spans="1:4">
       <c r="A994" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B994" t="s">
         <v>661</v>
@@ -18064,10 +18067,10 @@
     </row>
     <row r="995" spans="1:4">
       <c r="A995" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B995" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C995" t="n">
         <v>808</v>
@@ -18078,7 +18081,7 @@
     </row>
     <row r="996" spans="1:4">
       <c r="A996" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B996" t="s">
         <v>399</v>
@@ -18092,10 +18095,10 @@
     </row>
     <row r="997" spans="1:4">
       <c r="A997" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B997" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C997" t="n">
         <v>819</v>
@@ -18106,7 +18109,7 @@
     </row>
     <row r="998" spans="1:4">
       <c r="A998" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B998" t="s">
         <v>469</v>
@@ -18120,10 +18123,10 @@
     </row>
     <row r="999" spans="1:4">
       <c r="A999" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B999" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C999" t="n">
         <v>774</v>
@@ -18134,7 +18137,7 @@
     </row>
     <row r="1000" spans="1:4">
       <c r="A1000" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1000" t="s">
         <v>571</v>
@@ -18148,10 +18151,10 @@
     </row>
     <row r="1001" spans="1:4">
       <c r="A1001" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1001" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C1001" t="n">
         <v>787</v>
@@ -18162,7 +18165,7 @@
     </row>
     <row r="1002" spans="1:4">
       <c r="A1002" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1002" t="s">
         <v>716</v>
@@ -18176,10 +18179,10 @@
     </row>
     <row r="1003" spans="1:4">
       <c r="A1003" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1003" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C1003" t="n">
         <v>777</v>
@@ -18190,7 +18193,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1004" t="s">
         <v>259</v>
@@ -18204,7 +18207,7 @@
     </row>
     <row r="1005" spans="1:4">
       <c r="A1005" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1005" t="s">
         <v>248</v>
@@ -18218,7 +18221,7 @@
     </row>
     <row r="1006" spans="1:4">
       <c r="A1006" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1006" t="s">
         <v>752</v>
@@ -18232,7 +18235,7 @@
     </row>
     <row r="1007" spans="1:4">
       <c r="A1007" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1007" t="s">
         <v>79</v>
@@ -18246,7 +18249,7 @@
     </row>
     <row r="1008" spans="1:4">
       <c r="A1008" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1008" t="s">
         <v>130</v>
@@ -18260,10 +18263,10 @@
     </row>
     <row r="1009" spans="1:4">
       <c r="A1009" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1009" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C1009" t="n">
         <v>795</v>
@@ -18274,7 +18277,7 @@
     </row>
     <row r="1010" spans="1:4">
       <c r="A1010" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1010" t="s">
         <v>395</v>
@@ -18288,7 +18291,7 @@
     </row>
     <row r="1011" spans="1:4">
       <c r="A1011" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1011" t="s">
         <v>408</v>
@@ -18302,10 +18305,10 @@
     </row>
     <row r="1012" spans="1:4">
       <c r="A1012" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1012" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C1012" t="n">
         <v>764</v>
@@ -18316,7 +18319,7 @@
     </row>
     <row r="1013" spans="1:4">
       <c r="A1013" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1013" t="s">
         <v>738</v>
@@ -18330,7 +18333,7 @@
     </row>
     <row r="1014" spans="1:4">
       <c r="A1014" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1014" t="s">
         <v>10</v>
@@ -18344,7 +18347,7 @@
     </row>
     <row r="1015" spans="1:4">
       <c r="A1015" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1015" t="s">
         <v>53</v>
@@ -18358,10 +18361,10 @@
     </row>
     <row r="1016" spans="1:4">
       <c r="A1016" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1016" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C1016" t="n">
         <v>794</v>
@@ -18372,7 +18375,7 @@
     </row>
     <row r="1017" spans="1:4">
       <c r="A1017" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1017" t="s">
         <v>13</v>
@@ -18386,10 +18389,10 @@
     </row>
     <row r="1018" spans="1:4">
       <c r="A1018" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1018" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C1018" t="n">
         <v>794</v>
@@ -18400,7 +18403,7 @@
     </row>
     <row r="1019" spans="1:4">
       <c r="A1019" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1019" t="s">
         <v>463</v>
@@ -18414,7 +18417,7 @@
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1020" t="s">
         <v>40</v>
@@ -18428,10 +18431,10 @@
     </row>
     <row r="1021" spans="1:4">
       <c r="A1021" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1021" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C1021" t="n">
         <v>797</v>
@@ -18442,7 +18445,7 @@
     </row>
     <row r="1022" spans="1:4">
       <c r="A1022" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1022" t="s">
         <v>415</v>
@@ -18456,7 +18459,7 @@
     </row>
     <row r="1023" spans="1:4">
       <c r="A1023" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1023" t="s">
         <v>631</v>
@@ -18470,7 +18473,7 @@
     </row>
     <row r="1024" spans="1:4">
       <c r="A1024" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1024" t="s">
         <v>474</v>
@@ -18484,10 +18487,10 @@
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1025" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C1025" t="n">
         <v>766</v>
@@ -18498,7 +18501,7 @@
     </row>
     <row r="1026" spans="1:4">
       <c r="A1026" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1026" t="s">
         <v>442</v>
@@ -18512,7 +18515,7 @@
     </row>
     <row r="1027" spans="1:4">
       <c r="A1027" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1027" t="s">
         <v>225</v>
@@ -18526,10 +18529,10 @@
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1028" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C1028" t="n">
         <v>804</v>
@@ -18540,10 +18543,10 @@
     </row>
     <row r="1029" spans="1:4">
       <c r="A1029" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1029" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C1029" t="n">
         <v>805</v>
@@ -18554,7 +18557,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1030" t="s">
         <v>221</v>
@@ -18568,10 +18571,10 @@
     </row>
     <row r="1031" spans="1:4">
       <c r="A1031" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1031" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C1031" t="n">
         <v>795</v>
@@ -18582,7 +18585,7 @@
     </row>
     <row r="1032" spans="1:4">
       <c r="A1032" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1032" t="s">
         <v>59</v>
@@ -18596,10 +18599,10 @@
     </row>
     <row r="1033" spans="1:4">
       <c r="A1033" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1033" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C1033" t="n">
         <v>770</v>
@@ -18610,10 +18613,10 @@
     </row>
     <row r="1034" spans="1:4">
       <c r="A1034" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1034" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C1034" t="n">
         <v>751</v>
@@ -18624,7 +18627,7 @@
     </row>
     <row r="1035" spans="1:4">
       <c r="A1035" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1035" t="s">
         <v>224</v>
@@ -18638,10 +18641,10 @@
     </row>
     <row r="1036" spans="1:4">
       <c r="A1036" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1036" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C1036" t="n">
         <v>765</v>
@@ -18652,10 +18655,10 @@
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1037" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C1037" t="n">
         <v>764</v>
@@ -18666,10 +18669,10 @@
     </row>
     <row r="1038" spans="1:4">
       <c r="A1038" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1038" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C1038" t="n">
         <v>763</v>
@@ -18680,7 +18683,7 @@
     </row>
     <row r="1039" spans="1:4">
       <c r="A1039" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1039" t="s">
         <v>404</v>
@@ -18694,7 +18697,7 @@
     </row>
     <row r="1040" spans="1:4">
       <c r="A1040" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1040" t="s">
         <v>244</v>
@@ -18708,10 +18711,10 @@
     </row>
     <row r="1041" spans="1:4">
       <c r="A1041" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1041" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C1041" t="n">
         <v>805</v>
@@ -18722,7 +18725,7 @@
     </row>
     <row r="1042" spans="1:4">
       <c r="A1042" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1042" t="s">
         <v>56</v>
@@ -18736,10 +18739,10 @@
     </row>
     <row r="1043" spans="1:4">
       <c r="A1043" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1043" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C1043" t="n">
         <v>791</v>
@@ -18750,7 +18753,7 @@
     </row>
     <row r="1044" spans="1:4">
       <c r="A1044" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1044" t="s">
         <v>251</v>
@@ -18764,7 +18767,7 @@
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1045" t="s">
         <v>759</v>
@@ -18778,7 +18781,7 @@
     </row>
     <row r="1046" spans="1:4">
       <c r="A1046" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1046" t="s">
         <v>789</v>
@@ -18792,7 +18795,7 @@
     </row>
     <row r="1047" spans="1:4">
       <c r="A1047" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1047" t="s">
         <v>450</v>
@@ -18806,10 +18809,10 @@
     </row>
     <row r="1048" spans="1:4">
       <c r="A1048" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1048" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C1048" t="n">
         <v>774</v>
@@ -18820,10 +18823,10 @@
     </row>
     <row r="1049" spans="1:4">
       <c r="A1049" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1049" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C1049" t="n">
         <v>734</v>
@@ -18834,7 +18837,7 @@
     </row>
     <row r="1050" spans="1:4">
       <c r="A1050" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1050" t="s">
         <v>707</v>
@@ -18848,7 +18851,7 @@
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1051" t="s">
         <v>512</v>
@@ -18862,7 +18865,7 @@
     </row>
     <row r="1052" spans="1:4">
       <c r="A1052" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1052" t="s">
         <v>763</v>
@@ -18876,7 +18879,7 @@
     </row>
     <row r="1053" spans="1:4">
       <c r="A1053" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1053" t="s">
         <v>435</v>
@@ -18890,7 +18893,7 @@
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1054" t="s">
         <v>195</v>
@@ -18904,7 +18907,7 @@
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1055" t="s">
         <v>351</v>
@@ -18918,10 +18921,10 @@
     </row>
     <row r="1056" spans="1:4">
       <c r="A1056" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1056" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C1056" t="n">
         <v>775</v>
@@ -18932,7 +18935,7 @@
     </row>
     <row r="1057" spans="1:4">
       <c r="A1057" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1057" t="s">
         <v>12</v>
@@ -18946,10 +18949,10 @@
     </row>
     <row r="1058" spans="1:4">
       <c r="A1058" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1058" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C1058" t="n">
         <v>781</v>
@@ -18960,7 +18963,7 @@
     </row>
     <row r="1059" spans="1:4">
       <c r="A1059" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1059" t="s">
         <v>476</v>
@@ -18974,7 +18977,7 @@
     </row>
     <row r="1060" spans="1:4">
       <c r="A1060" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1060" t="s">
         <v>211</v>
@@ -18988,10 +18991,10 @@
     </row>
     <row r="1061" spans="1:4">
       <c r="A1061" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1061" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C1061" t="n">
         <v>776</v>
@@ -19002,7 +19005,7 @@
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1062" t="s">
         <v>548</v>
@@ -19016,7 +19019,7 @@
     </row>
     <row r="1063" spans="1:4">
       <c r="A1063" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1063" t="s">
         <v>519</v>
@@ -19030,10 +19033,10 @@
     </row>
     <row r="1064" spans="1:4">
       <c r="A1064" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1064" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C1064" t="n">
         <v>759</v>
@@ -19044,10 +19047,10 @@
     </row>
     <row r="1065" spans="1:4">
       <c r="A1065" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1065" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C1065" t="n">
         <v>771</v>
@@ -19058,7 +19061,7 @@
     </row>
     <row r="1066" spans="1:4">
       <c r="A1066" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1066" t="s">
         <v>624</v>
@@ -19072,10 +19075,10 @@
     </row>
     <row r="1067" spans="1:4">
       <c r="A1067" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1067" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C1067" t="n">
         <v>797</v>
@@ -19086,10 +19089,10 @@
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1068" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C1068" t="n">
         <v>801</v>
@@ -19100,10 +19103,10 @@
     </row>
     <row r="1069" spans="1:4">
       <c r="A1069" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1069" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C1069" t="n">
         <v>755</v>
@@ -19114,7 +19117,7 @@
     </row>
     <row r="1070" spans="1:4">
       <c r="A1070" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1070" t="s">
         <v>728</v>
@@ -19128,7 +19131,7 @@
     </row>
     <row r="1071" spans="1:4">
       <c r="A1071" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1071" t="s">
         <v>705</v>
@@ -19142,7 +19145,7 @@
     </row>
     <row r="1072" spans="1:4">
       <c r="A1072" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1072" t="s">
         <v>498</v>
@@ -19156,7 +19159,7 @@
     </row>
     <row r="1073" spans="1:4">
       <c r="A1073" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1073" t="s">
         <v>74</v>
@@ -19170,7 +19173,7 @@
     </row>
     <row r="1074" spans="1:4">
       <c r="A1074" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1074" t="s">
         <v>196</v>
@@ -19184,7 +19187,7 @@
     </row>
     <row r="1075" spans="1:4">
       <c r="A1075" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1075" t="s">
         <v>86</v>
@@ -19198,10 +19201,10 @@
     </row>
     <row r="1076" spans="1:4">
       <c r="A1076" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1076" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C1076" t="n">
         <v>773</v>
@@ -19212,7 +19215,7 @@
     </row>
     <row r="1077" spans="1:4">
       <c r="A1077" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1077" t="s">
         <v>475</v>
@@ -19226,10 +19229,10 @@
     </row>
     <row r="1078" spans="1:4">
       <c r="A1078" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1078" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C1078" t="n">
         <v>780</v>
@@ -19240,10 +19243,10 @@
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1079" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C1079" t="n">
         <v>802</v>
@@ -19254,7 +19257,7 @@
     </row>
     <row r="1080" spans="1:4">
       <c r="A1080" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1080" t="s">
         <v>343</v>
@@ -19268,7 +19271,7 @@
     </row>
     <row r="1081" spans="1:4">
       <c r="A1081" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1081" t="s">
         <v>412</v>
@@ -19282,7 +19285,7 @@
     </row>
     <row r="1082" spans="1:4">
       <c r="A1082" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1082" t="s">
         <v>43</v>
@@ -19296,7 +19299,7 @@
     </row>
     <row r="1083" spans="1:4">
       <c r="A1083" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1083" t="s">
         <v>663</v>
@@ -19310,7 +19313,7 @@
     </row>
     <row r="1084" spans="1:4">
       <c r="A1084" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1084" t="s">
         <v>448</v>
@@ -19324,7 +19327,7 @@
     </row>
     <row r="1085" spans="1:4">
       <c r="A1085" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1085" t="s">
         <v>245</v>
@@ -19338,7 +19341,7 @@
     </row>
     <row r="1086" spans="1:4">
       <c r="A1086" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1086" t="s">
         <v>811</v>
@@ -19352,7 +19355,7 @@
     </row>
     <row r="1087" spans="1:4">
       <c r="A1087" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1087" t="s">
         <v>229</v>
@@ -19366,7 +19369,7 @@
     </row>
     <row r="1088" spans="1:4">
       <c r="A1088" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1088" t="s">
         <v>104</v>
@@ -19380,10 +19383,10 @@
     </row>
     <row r="1089" spans="1:4">
       <c r="A1089" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1089" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C1089" t="n">
         <v>817</v>
@@ -19394,10 +19397,10 @@
     </row>
     <row r="1090" spans="1:4">
       <c r="A1090" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1090" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C1090" t="n">
         <v>817</v>
@@ -19408,7 +19411,7 @@
     </row>
     <row r="1091" spans="1:4">
       <c r="A1091" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1091" t="s">
         <v>547</v>
@@ -19422,7 +19425,7 @@
     </row>
     <row r="1092" spans="1:4">
       <c r="A1092" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1092" t="s">
         <v>746</v>
@@ -19436,10 +19439,10 @@
     </row>
     <row r="1093" spans="1:4">
       <c r="A1093" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1093" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C1093" t="n">
         <v>761</v>
@@ -19450,7 +19453,7 @@
     </row>
     <row r="1094" spans="1:4">
       <c r="A1094" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1094" t="s">
         <v>505</v>
@@ -19464,10 +19467,10 @@
     </row>
     <row r="1095" spans="1:4">
       <c r="A1095" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1095" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C1095" t="n">
         <v>783</v>
@@ -19478,7 +19481,7 @@
     </row>
     <row r="1096" spans="1:4">
       <c r="A1096" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1096" t="s">
         <v>567</v>
@@ -19492,10 +19495,10 @@
     </row>
     <row r="1097" spans="1:4">
       <c r="A1097" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1097" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C1097" t="n">
         <v>791</v>
@@ -19506,7 +19509,7 @@
     </row>
     <row r="1098" spans="1:4">
       <c r="A1098" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1098" t="s">
         <v>654</v>
@@ -19520,10 +19523,10 @@
     </row>
     <row r="1099" spans="1:4">
       <c r="A1099" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1099" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C1099" t="n">
         <v>783</v>
@@ -19534,10 +19537,10 @@
     </row>
     <row r="1100" spans="1:4">
       <c r="A1100" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1100" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C1100" t="n">
         <v>775</v>
@@ -19548,10 +19551,10 @@
     </row>
     <row r="1101" spans="1:4">
       <c r="A1101" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1101" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C1101" t="n">
         <v>793</v>
@@ -19562,7 +19565,7 @@
     </row>
     <row r="1102" spans="1:4">
       <c r="A1102" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1102" t="s">
         <v>124</v>
@@ -19576,7 +19579,7 @@
     </row>
     <row r="1103" spans="1:4">
       <c r="A1103" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1103" t="s">
         <v>158</v>
@@ -19590,10 +19593,10 @@
     </row>
     <row r="1104" spans="1:4">
       <c r="A1104" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1104" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C1104" t="n">
         <v>733</v>
@@ -19604,7 +19607,7 @@
     </row>
     <row r="1105" spans="1:4">
       <c r="A1105" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1105" t="s">
         <v>430</v>
@@ -19618,7 +19621,7 @@
     </row>
     <row r="1106" spans="1:4">
       <c r="A1106" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1106" t="s">
         <v>407</v>
@@ -19632,7 +19635,7 @@
     </row>
     <row r="1107" spans="1:4">
       <c r="A1107" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1107" t="s">
         <v>391</v>
@@ -19646,7 +19649,7 @@
     </row>
     <row r="1108" spans="1:4">
       <c r="A1108" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1108" t="s">
         <v>460</v>
@@ -19660,7 +19663,7 @@
     </row>
     <row r="1109" spans="1:4">
       <c r="A1109" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1109" t="s">
         <v>555</v>
@@ -19674,7 +19677,7 @@
     </row>
     <row r="1110" spans="1:4">
       <c r="A1110" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1110" t="s">
         <v>272</v>
@@ -19688,10 +19691,10 @@
     </row>
     <row r="1111" spans="1:4">
       <c r="A1111" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1111" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C1111" t="n">
         <v>791</v>
@@ -19702,10 +19705,10 @@
     </row>
     <row r="1112" spans="1:4">
       <c r="A1112" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1112" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C1112" t="n">
         <v>785</v>
@@ -19716,7 +19719,7 @@
     </row>
     <row r="1113" spans="1:4">
       <c r="A1113" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1113" t="s">
         <v>137</v>
@@ -19730,7 +19733,7 @@
     </row>
     <row r="1114" spans="1:4">
       <c r="A1114" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1114" t="s">
         <v>132</v>
@@ -19744,7 +19747,7 @@
     </row>
     <row r="1115" spans="1:4">
       <c r="A1115" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1115" t="s">
         <v>314</v>
@@ -19758,7 +19761,7 @@
     </row>
     <row r="1116" spans="1:4">
       <c r="A1116" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1116" t="s">
         <v>699</v>
@@ -19772,7 +19775,7 @@
     </row>
     <row r="1117" spans="1:4">
       <c r="A1117" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1117" t="s">
         <v>252</v>
@@ -19786,10 +19789,10 @@
     </row>
     <row r="1118" spans="1:4">
       <c r="A1118" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1118" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C1118" t="n">
         <v>793</v>
@@ -19800,7 +19803,7 @@
     </row>
     <row r="1119" spans="1:4">
       <c r="A1119" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1119" t="s">
         <v>48</v>
@@ -19814,7 +19817,7 @@
     </row>
     <row r="1120" spans="1:4">
       <c r="A1120" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1120" t="s">
         <v>544</v>
@@ -19828,10 +19831,10 @@
     </row>
     <row r="1121" spans="1:4">
       <c r="A1121" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1121" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C1121" t="n">
         <v>804</v>
@@ -19842,10 +19845,10 @@
     </row>
     <row r="1122" spans="1:4">
       <c r="A1122" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1122" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C1122" t="n">
         <v>783</v>
@@ -19856,7 +19859,7 @@
     </row>
     <row r="1123" spans="1:4">
       <c r="A1123" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1123" t="s">
         <v>681</v>
@@ -19870,7 +19873,7 @@
     </row>
     <row r="1124" spans="1:4">
       <c r="A1124" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1124" t="s">
         <v>722</v>
@@ -19884,10 +19887,10 @@
     </row>
     <row r="1125" spans="1:4">
       <c r="A1125" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1125" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C1125" t="n">
         <v>798</v>
@@ -19898,10 +19901,10 @@
     </row>
     <row r="1126" spans="1:4">
       <c r="A1126" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1126" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C1126" t="n">
         <v>757</v>
@@ -19912,7 +19915,7 @@
     </row>
     <row r="1127" spans="1:4">
       <c r="A1127" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1127" t="s">
         <v>282</v>
@@ -19926,7 +19929,7 @@
     </row>
     <row r="1128" spans="1:4">
       <c r="A1128" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1128" t="s">
         <v>776</v>
@@ -19940,7 +19943,7 @@
     </row>
     <row r="1129" spans="1:4">
       <c r="A1129" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1129" t="s">
         <v>533</v>
@@ -19954,10 +19957,10 @@
     </row>
     <row r="1130" spans="1:4">
       <c r="A1130" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1130" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C1130" t="n">
         <v>818</v>
@@ -19968,10 +19971,10 @@
     </row>
     <row r="1131" spans="1:4">
       <c r="A1131" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1131" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C1131" t="n">
         <v>755</v>
@@ -19982,7 +19985,7 @@
     </row>
     <row r="1132" spans="1:4">
       <c r="A1132" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1132" t="s">
         <v>138</v>
@@ -19996,10 +19999,10 @@
     </row>
     <row r="1133" spans="1:4">
       <c r="A1133" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1133" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C1133" t="n">
         <v>772</v>
@@ -20010,10 +20013,10 @@
     </row>
     <row r="1134" spans="1:4">
       <c r="A1134" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1134" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C1134" t="n">
         <v>775</v>
@@ -20024,7 +20027,7 @@
     </row>
     <row r="1135" spans="1:4">
       <c r="A1135" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1135" t="s">
         <v>613</v>
@@ -20038,10 +20041,10 @@
     </row>
     <row r="1136" spans="1:4">
       <c r="A1136" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1136" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C1136" t="n">
         <v>774</v>
@@ -20052,7 +20055,7 @@
     </row>
     <row r="1137" spans="1:4">
       <c r="A1137" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1137" t="s">
         <v>618</v>
@@ -20066,10 +20069,10 @@
     </row>
     <row r="1138" spans="1:4">
       <c r="A1138" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1138" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C1138" t="n">
         <v>801</v>
@@ -20080,7 +20083,7 @@
     </row>
     <row r="1139" spans="1:4">
       <c r="A1139" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1139" t="s">
         <v>480</v>
@@ -20094,7 +20097,7 @@
     </row>
     <row r="1140" spans="1:4">
       <c r="A1140" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1140" t="s">
         <v>676</v>
@@ -20108,7 +20111,7 @@
     </row>
     <row r="1141" spans="1:4">
       <c r="A1141" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1141" t="s">
         <v>371</v>
@@ -20122,7 +20125,7 @@
     </row>
     <row r="1142" spans="1:4">
       <c r="A1142" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1142" t="s">
         <v>527</v>
@@ -20136,10 +20139,10 @@
     </row>
     <row r="1143" spans="1:4">
       <c r="A1143" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1143" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C1143" t="n">
         <v>769</v>
@@ -20150,7 +20153,7 @@
     </row>
     <row r="1144" spans="1:4">
       <c r="A1144" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1144" t="s">
         <v>560</v>
@@ -20164,7 +20167,7 @@
     </row>
     <row r="1145" spans="1:4">
       <c r="A1145" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1145" t="s">
         <v>684</v>
@@ -20178,10 +20181,10 @@
     </row>
     <row r="1146" spans="1:4">
       <c r="A1146" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1146" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C1146" t="n">
         <v>821</v>
@@ -20192,10 +20195,10 @@
     </row>
     <row r="1147" spans="1:4">
       <c r="A1147" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1147" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C1147" t="n">
         <v>762</v>
@@ -20206,7 +20209,7 @@
     </row>
     <row r="1148" spans="1:4">
       <c r="A1148" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1148" t="s">
         <v>532</v>
@@ -20220,10 +20223,10 @@
     </row>
     <row r="1149" spans="1:4">
       <c r="A1149" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1149" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C1149" t="n">
         <v>803</v>
@@ -20234,7 +20237,7 @@
     </row>
     <row r="1150" spans="1:4">
       <c r="A1150" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1150" t="s">
         <v>685</v>
@@ -20248,7 +20251,7 @@
     </row>
     <row r="1151" spans="1:4">
       <c r="A1151" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1151" t="s">
         <v>57</v>
@@ -20262,7 +20265,7 @@
     </row>
     <row r="1152" spans="1:4">
       <c r="A1152" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1152" t="s">
         <v>554</v>
@@ -20276,7 +20279,7 @@
     </row>
     <row r="1153" spans="1:4">
       <c r="A1153" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1153" t="s">
         <v>101</v>
@@ -20290,10 +20293,10 @@
     </row>
     <row r="1154" spans="1:4">
       <c r="A1154" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1154" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C1154" t="n">
         <v>766</v>
@@ -20304,10 +20307,10 @@
     </row>
     <row r="1155" spans="1:4">
       <c r="A1155" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1155" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C1155" t="n">
         <v>776</v>
@@ -20318,7 +20321,7 @@
     </row>
     <row r="1156" spans="1:4">
       <c r="A1156" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1156" t="s">
         <v>528</v>
@@ -20332,7 +20335,7 @@
     </row>
     <row r="1157" spans="1:4">
       <c r="A1157" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1157" t="s">
         <v>713</v>
@@ -20346,7 +20349,7 @@
     </row>
     <row r="1158" spans="1:4">
       <c r="A1158" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1158" t="s">
         <v>688</v>
@@ -20360,7 +20363,7 @@
     </row>
     <row r="1159" spans="1:4">
       <c r="A1159" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1159" t="s">
         <v>73</v>
@@ -20374,10 +20377,10 @@
     </row>
     <row r="1160" spans="1:4">
       <c r="A1160" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1160" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C1160" t="n">
         <v>784</v>
@@ -20388,7 +20391,7 @@
     </row>
     <row r="1161" spans="1:4">
       <c r="A1161" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1161" t="s">
         <v>31</v>
@@ -20402,10 +20405,10 @@
     </row>
     <row r="1162" spans="1:4">
       <c r="A1162" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1162" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C1162" t="n">
         <v>790</v>
@@ -20416,10 +20419,10 @@
     </row>
     <row r="1163" spans="1:4">
       <c r="A1163" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1163" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C1163" t="n">
         <v>783</v>
@@ -20430,7 +20433,7 @@
     </row>
     <row r="1164" spans="1:4">
       <c r="A1164" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1164" t="s">
         <v>382</v>
@@ -20444,10 +20447,10 @@
     </row>
     <row r="1165" spans="1:4">
       <c r="A1165" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1165" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C1165" t="n">
         <v>772</v>
@@ -20458,7 +20461,7 @@
     </row>
     <row r="1166" spans="1:4">
       <c r="A1166" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1166" t="s">
         <v>263</v>
@@ -20472,7 +20475,7 @@
     </row>
     <row r="1167" spans="1:4">
       <c r="A1167" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1167" t="s">
         <v>348</v>
@@ -20486,10 +20489,10 @@
     </row>
     <row r="1168" spans="1:4">
       <c r="A1168" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1168" t="s">
         <v>841</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>840</v>
       </c>
       <c r="C1168" t="n">
         <v>764</v>
@@ -20500,10 +20503,10 @@
     </row>
     <row r="1169" spans="1:4">
       <c r="A1169" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1169" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C1169" t="n">
         <v>766</v>
@@ -20514,7 +20517,7 @@
     </row>
     <row r="1170" spans="1:4">
       <c r="A1170" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1170" t="s">
         <v>69</v>
@@ -20528,10 +20531,10 @@
     </row>
     <row r="1171" spans="1:4">
       <c r="A1171" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1171" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C1171" t="n">
         <v>783</v>
@@ -20542,10 +20545,10 @@
     </row>
     <row r="1172" spans="1:4">
       <c r="A1172" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1172" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C1172" t="n">
         <v>751</v>
@@ -20556,7 +20559,7 @@
     </row>
     <row r="1173" spans="1:4">
       <c r="A1173" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1173" t="s">
         <v>302</v>
@@ -20570,7 +20573,7 @@
     </row>
     <row r="1174" spans="1:4">
       <c r="A1174" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1174" t="s">
         <v>217</v>
@@ -20584,7 +20587,7 @@
     </row>
     <row r="1175" spans="1:4">
       <c r="A1175" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1175" t="s">
         <v>246</v>
@@ -20598,7 +20601,7 @@
     </row>
     <row r="1176" spans="1:4">
       <c r="A1176" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1176" t="s">
         <v>161</v>
@@ -20612,7 +20615,7 @@
     </row>
     <row r="1177" spans="1:4">
       <c r="A1177" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1177" t="s">
         <v>234</v>
@@ -20626,7 +20629,7 @@
     </row>
     <row r="1178" spans="1:4">
       <c r="A1178" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1178" t="s">
         <v>750</v>
@@ -20640,7 +20643,7 @@
     </row>
     <row r="1179" spans="1:4">
       <c r="A1179" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1179" t="s">
         <v>125</v>
@@ -20654,7 +20657,7 @@
     </row>
     <row r="1180" spans="1:4">
       <c r="A1180" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1180" t="s">
         <v>226</v>
@@ -20668,10 +20671,10 @@
     </row>
     <row r="1181" spans="1:4">
       <c r="A1181" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1181" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C1181" t="n">
         <v>746</v>
@@ -20682,10 +20685,10 @@
     </row>
     <row r="1182" spans="1:4">
       <c r="A1182" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1182" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C1182" t="n">
         <v>732</v>
@@ -20696,7 +20699,7 @@
     </row>
     <row r="1183" spans="1:4">
       <c r="A1183" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1183" t="s">
         <v>646</v>
@@ -20710,10 +20713,10 @@
     </row>
     <row r="1184" spans="1:4">
       <c r="A1184" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1184" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C1184" t="n">
         <v>750</v>
@@ -20724,10 +20727,10 @@
     </row>
     <row r="1185" spans="1:4">
       <c r="A1185" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1185" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C1185" t="n">
         <v>760</v>
@@ -20738,10 +20741,10 @@
     </row>
     <row r="1186" spans="1:4">
       <c r="A1186" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1186" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C1186" t="n">
         <v>788</v>
@@ -20752,10 +20755,10 @@
     </row>
     <row r="1187" spans="1:4">
       <c r="A1187" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1187" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C1187" t="n">
         <v>787</v>
@@ -20766,7 +20769,7 @@
     </row>
     <row r="1188" spans="1:4">
       <c r="A1188" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1188" t="s">
         <v>256</v>
@@ -20780,10 +20783,10 @@
     </row>
     <row r="1189" spans="1:4">
       <c r="A1189" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1189" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C1189" t="n">
         <v>751</v>
@@ -20794,10 +20797,10 @@
     </row>
     <row r="1190" spans="1:4">
       <c r="A1190" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1190" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C1190" t="n">
         <v>758</v>
@@ -20808,7 +20811,7 @@
     </row>
     <row r="1191" spans="1:4">
       <c r="A1191" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1191" t="s">
         <v>176</v>
@@ -20822,10 +20825,10 @@
     </row>
     <row r="1192" spans="1:4">
       <c r="A1192" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1192" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C1192" t="n">
         <v>734</v>
@@ -20836,10 +20839,10 @@
     </row>
     <row r="1193" spans="1:4">
       <c r="A1193" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1193" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C1193" t="n">
         <v>728</v>
@@ -20850,7 +20853,7 @@
     </row>
     <row r="1194" spans="1:4">
       <c r="A1194" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1194" t="s">
         <v>110</v>
@@ -20864,7 +20867,7 @@
     </row>
     <row r="1195" spans="1:4">
       <c r="A1195" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1195" t="s">
         <v>239</v>
@@ -20878,10 +20881,10 @@
     </row>
     <row r="1196" spans="1:4">
       <c r="A1196" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1196" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C1196" t="n">
         <v>793</v>
@@ -20892,10 +20895,10 @@
     </row>
     <row r="1197" spans="1:4">
       <c r="A1197" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1197" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C1197" t="n">
         <v>767</v>
@@ -20906,7 +20909,7 @@
     </row>
     <row r="1198" spans="1:4">
       <c r="A1198" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1198" t="s">
         <v>264</v>
@@ -20920,7 +20923,7 @@
     </row>
     <row r="1199" spans="1:4">
       <c r="A1199" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1199" t="s">
         <v>774</v>
@@ -20934,10 +20937,10 @@
     </row>
     <row r="1200" spans="1:4">
       <c r="A1200" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1200" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C1200" t="n">
         <v>774</v>
@@ -20948,7 +20951,7 @@
     </row>
     <row r="1201" spans="1:4">
       <c r="A1201" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1201" t="s">
         <v>470</v>
@@ -20962,10 +20965,10 @@
     </row>
     <row r="1202" spans="1:4">
       <c r="A1202" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1202" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C1202" t="n">
         <v>771</v>
@@ -20976,7 +20979,7 @@
     </row>
     <row r="1203" spans="1:4">
       <c r="A1203" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1203" t="s">
         <v>97</v>
@@ -20990,7 +20993,7 @@
     </row>
     <row r="1204" spans="1:4">
       <c r="A1204" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1204" t="s">
         <v>213</v>
@@ -21004,10 +21007,10 @@
     </row>
     <row r="1205" spans="1:4">
       <c r="A1205" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1205" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C1205" t="n">
         <v>783</v>
@@ -21018,7 +21021,7 @@
     </row>
     <row r="1206" spans="1:4">
       <c r="A1206" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1206" t="s">
         <v>673</v>
@@ -21032,7 +21035,7 @@
     </row>
     <row r="1207" spans="1:4">
       <c r="A1207" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1207" t="s">
         <v>236</v>
@@ -21046,7 +21049,7 @@
     </row>
     <row r="1208" spans="1:4">
       <c r="A1208" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1208" t="s">
         <v>634</v>
@@ -21060,7 +21063,7 @@
     </row>
     <row r="1209" spans="1:4">
       <c r="A1209" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1209" t="s">
         <v>284</v>
@@ -21074,10 +21077,10 @@
     </row>
     <row r="1210" spans="1:4">
       <c r="A1210" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1210" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C1210" t="n">
         <v>792</v>
@@ -21088,10 +21091,10 @@
     </row>
     <row r="1211" spans="1:4">
       <c r="A1211" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1211" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C1211" t="n">
         <v>754</v>
@@ -21102,7 +21105,7 @@
     </row>
     <row r="1212" spans="1:4">
       <c r="A1212" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1212" t="s">
         <v>537</v>
@@ -21116,7 +21119,7 @@
     </row>
     <row r="1213" spans="1:4">
       <c r="A1213" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1213" t="s">
         <v>203</v>
@@ -21130,10 +21133,10 @@
     </row>
     <row r="1214" spans="1:4">
       <c r="A1214" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1214" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C1214" t="n">
         <v>776</v>
@@ -21144,7 +21147,7 @@
     </row>
     <row r="1215" spans="1:4">
       <c r="A1215" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1215" t="s">
         <v>804</v>
@@ -21158,10 +21161,10 @@
     </row>
     <row r="1216" spans="1:4">
       <c r="A1216" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1216" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C1216" t="n">
         <v>739</v>
@@ -21172,10 +21175,10 @@
     </row>
     <row r="1217" spans="1:4">
       <c r="A1217" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1217" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C1217" t="n">
         <v>768</v>
@@ -21186,10 +21189,10 @@
     </row>
     <row r="1218" spans="1:4">
       <c r="A1218" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1218" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C1218" t="n">
         <v>742</v>
@@ -21200,10 +21203,10 @@
     </row>
     <row r="1219" spans="1:4">
       <c r="A1219" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1219" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C1219" t="n">
         <v>764</v>
@@ -21214,7 +21217,7 @@
     </row>
     <row r="1220" spans="1:4">
       <c r="A1220" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1220" t="s">
         <v>303</v>
@@ -21228,10 +21231,10 @@
     </row>
     <row r="1221" spans="1:4">
       <c r="A1221" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1221" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C1221" t="n">
         <v>780</v>
@@ -21242,10 +21245,10 @@
     </row>
     <row r="1222" spans="1:4">
       <c r="A1222" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1222" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C1222" t="n">
         <v>758</v>
@@ -21256,7 +21259,7 @@
     </row>
     <row r="1223" spans="1:4">
       <c r="A1223" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1223" t="s">
         <v>481</v>
@@ -21270,7 +21273,7 @@
     </row>
     <row r="1224" spans="1:4">
       <c r="A1224" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1224" t="s">
         <v>725</v>
@@ -21284,7 +21287,7 @@
     </row>
     <row r="1225" spans="1:4">
       <c r="A1225" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1225" t="s">
         <v>68</v>
@@ -21298,7 +21301,7 @@
     </row>
     <row r="1226" spans="1:4">
       <c r="A1226" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1226" t="s">
         <v>452</v>
@@ -21312,7 +21315,7 @@
     </row>
     <row r="1227" spans="1:4">
       <c r="A1227" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1227" t="s">
         <v>637</v>
@@ -21326,10 +21329,10 @@
     </row>
     <row r="1228" spans="1:4">
       <c r="A1228" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1228" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C1228" t="n">
         <v>768</v>
@@ -21340,7 +21343,7 @@
     </row>
     <row r="1229" spans="1:4">
       <c r="A1229" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1229" t="s">
         <v>541</v>
@@ -21354,10 +21357,10 @@
     </row>
     <row r="1230" spans="1:4">
       <c r="A1230" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1230" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C1230" t="n">
         <v>764</v>
@@ -21368,10 +21371,10 @@
     </row>
     <row r="1231" spans="1:4">
       <c r="A1231" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1231" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C1231" t="n">
         <v>799</v>
@@ -21382,7 +21385,7 @@
     </row>
     <row r="1232" spans="1:4">
       <c r="A1232" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1232" t="s">
         <v>94</v>
@@ -21396,7 +21399,7 @@
     </row>
     <row r="1233" spans="1:4">
       <c r="A1233" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1233" t="s">
         <v>241</v>
@@ -21410,7 +21413,7 @@
     </row>
     <row r="1234" spans="1:4">
       <c r="A1234" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1234" t="s">
         <v>796</v>
@@ -21424,7 +21427,7 @@
     </row>
     <row r="1235" spans="1:4">
       <c r="A1235" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1235" t="s">
         <v>192</v>
@@ -21438,7 +21441,7 @@
     </row>
     <row r="1236" spans="1:4">
       <c r="A1236" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1236" t="s">
         <v>523</v>
@@ -21452,7 +21455,7 @@
     </row>
     <row r="1237" spans="1:4">
       <c r="A1237" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1237" t="s">
         <v>258</v>
@@ -21466,7 +21469,7 @@
     </row>
     <row r="1238" spans="1:4">
       <c r="A1238" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1238" t="s">
         <v>562</v>
@@ -21480,10 +21483,10 @@
     </row>
     <row r="1239" spans="1:4">
       <c r="A1239" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1239" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C1239" t="n">
         <v>780</v>
@@ -21494,10 +21497,10 @@
     </row>
     <row r="1240" spans="1:4">
       <c r="A1240" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1240" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C1240" t="n">
         <v>773</v>
@@ -21508,7 +21511,7 @@
     </row>
     <row r="1241" spans="1:4">
       <c r="A1241" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1241" t="s">
         <v>106</v>
@@ -21522,7 +21525,7 @@
     </row>
     <row r="1242" spans="1:4">
       <c r="A1242" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1242" t="s">
         <v>2</v>
@@ -21536,10 +21539,10 @@
     </row>
     <row r="1243" spans="1:4">
       <c r="A1243" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1243" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C1243" t="n">
         <v>774</v>
@@ -21550,7 +21553,7 @@
     </row>
     <row r="1244" spans="1:4">
       <c r="A1244" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1244" t="s">
         <v>478</v>
@@ -21564,10 +21567,10 @@
     </row>
     <row r="1245" spans="1:4">
       <c r="A1245" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1245" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C1245" t="n">
         <v>775</v>
@@ -21578,10 +21581,10 @@
     </row>
     <row r="1246" spans="1:4">
       <c r="A1246" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1246" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C1246" t="n">
         <v>768</v>
@@ -21592,7 +21595,7 @@
     </row>
     <row r="1247" spans="1:4">
       <c r="A1247" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1247" t="s">
         <v>201</v>
@@ -21606,10 +21609,10 @@
     </row>
     <row r="1248" spans="1:4">
       <c r="A1248" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1248" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C1248" t="n">
         <v>745</v>
@@ -21620,7 +21623,7 @@
     </row>
     <row r="1249" spans="1:4">
       <c r="A1249" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1249" t="s">
         <v>734</v>
@@ -21634,7 +21637,7 @@
     </row>
     <row r="1250" spans="1:4">
       <c r="A1250" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1250" t="s">
         <v>321</v>
@@ -21648,10 +21651,10 @@
     </row>
     <row r="1251" spans="1:4">
       <c r="A1251" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1251" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C1251" t="n">
         <v>800</v>
@@ -21662,7 +21665,7 @@
     </row>
     <row r="1252" spans="1:4">
       <c r="A1252" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1252" t="s">
         <v>286</v>
@@ -21676,7 +21679,7 @@
     </row>
     <row r="1253" spans="1:4">
       <c r="A1253" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1253" t="s">
         <v>423</v>
@@ -21690,7 +21693,7 @@
     </row>
     <row r="1254" spans="1:4">
       <c r="A1254" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1254" t="s">
         <v>346</v>
@@ -21704,10 +21707,10 @@
     </row>
     <row r="1255" spans="1:4">
       <c r="A1255" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1255" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C1255" t="n">
         <v>745</v>
@@ -21718,7 +21721,7 @@
     </row>
     <row r="1256" spans="1:4">
       <c r="A1256" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1256" t="s">
         <v>792</v>

--- a/new.xlsx
+++ b/new.xlsx
@@ -1,22 +1,389 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+  <si>
+    <t>A1988P135400030</t>
+  </si>
+  <si>
+    <t>HEADINGSVERLE</t>
+  </si>
+  <si>
+    <t>ASSEFFAA</t>
+  </si>
+  <si>
+    <t>ZYMESFR</t>
+  </si>
+  <si>
+    <t>DEPARTM</t>
+  </si>
+  <si>
+    <t>ACETYLCHOLINESTERASEANENZYMATICMARKEROFHUMANREDBLOODCELLAGING</t>
+  </si>
+  <si>
+    <t>A1988Q716900003</t>
+  </si>
+  <si>
+    <t>AMPYFRANKLIN</t>
+  </si>
+  <si>
+    <t>CARISSU</t>
+  </si>
+  <si>
+    <t>ETHNICIDENTITYANDTYPE2DIABETESHEALTHATTITUDESINAMERICANSOFAFRICANANCESTRY</t>
+  </si>
+  <si>
+    <t>GEORGETOWNUNIV</t>
+  </si>
+  <si>
+    <t>APT201</t>
+  </si>
+  <si>
+    <t>USEPA</t>
+  </si>
+  <si>
+    <t>AMPYFRANDAASSEFFA1988REGULATORYEFFECTSOF17BESTRADIOLONMETABOLISMOFDIMETHYLNITROSAMINEBYRENALANDHEPATICMICROSOMALENZYMESFROMBALBCMICE</t>
+  </si>
+  <si>
+    <t>TICSTESTINGTREATMENTANDTECHNOLOGYINGENETICSANDETHICSINHEALTHCARENEWQUESTIONSINTHEAGEOFGENOMICHEALTHEDRITA</t>
+  </si>
+  <si>
+    <t>A1981MD54300049</t>
+  </si>
+  <si>
+    <t>OAPYRENEMUTAGENICITYINUNINDUCEDTISSUESFROMBALBCMICEANDS</t>
+  </si>
+  <si>
+    <t>A1986D682200008</t>
+  </si>
+  <si>
+    <t>A1986D682200009</t>
+  </si>
+  <si>
+    <t>AASSEFFA</t>
+  </si>
+  <si>
+    <t>LEECM</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ETHIOPIANSOILSHARBORNATURALPOPULATIONSOFRHIZOBIATHATFORMSYMBIOSESWITHCOMMONBEANPHASEOLUSVULGARISL</t>
+  </si>
+  <si>
+    <t>ENIORSEMINARRESEAR</t>
+  </si>
+  <si>
+    <t>SPHDOREGONUNIV</t>
+  </si>
+  <si>
+    <t>SKAARTC</t>
+  </si>
+  <si>
+    <t>INVITROMUTAGENICITYOFWATERCONTAMINANTSINCOMPLEXMIXTURES</t>
+  </si>
+  <si>
+    <t>HOWARDUNIV</t>
+  </si>
+  <si>
+    <t>GEBREMEDHINT</t>
+  </si>
+  <si>
+    <t>ACETYLCHOLINESTERASEACTIVITYINCHRONICRENALFAILURE</t>
+  </si>
+  <si>
+    <t>STATISTICALANALYSISOFCRYPTICVARIATIONINDROSOPHILAALCOHOLDEHYDROGENASE</t>
+  </si>
+  <si>
+    <t>A1988P532300003</t>
+  </si>
+  <si>
+    <t>CHANGESINNATIVEALCOHOLDEHYDROGENASEACTIVITYOFDROSOPHILAUPONTREATMENTWITHGUANIDINEHYDROCHLORIDEUREAANDHEAT</t>
+  </si>
+  <si>
+    <t>AYJRFRANKLIN</t>
+  </si>
+  <si>
+    <t>REO201</t>
+  </si>
+  <si>
+    <t>8BENZOAPYRENEMUTAGENICITYINUNINDUCEDTISSUESFROMBALBCMICEANDSPRAGUEDAWLEYRATSASANINDEXOFPOSSIBLEHEALTHRISKSUSINGTHESALMONELLAMUTAGENICITYASSAY</t>
+  </si>
+  <si>
+    <t>PRALLYG</t>
+  </si>
+  <si>
+    <t>BEYENED</t>
+  </si>
+  <si>
+    <t>BRANDYY</t>
+  </si>
+  <si>
+    <t>VANBERKUMP</t>
+  </si>
+  <si>
+    <t>CTSOF17BESTRADIOLONMETABOLISMOFDIMETHYLNITROSAMINEBYRENALANDHEPATICMIC</t>
+  </si>
+  <si>
+    <t>MOHLAS</t>
+  </si>
+  <si>
+    <t>Prob is zero</t>
+  </si>
+  <si>
+    <t>CRISSWE</t>
+  </si>
+  <si>
+    <t>BREZOJCROYA</t>
+  </si>
+  <si>
+    <t>STAMINERELEASEFROMPORCINEPERIPHERALBLOODBASOPHILSAFTERASCARISSUUMINFE</t>
+  </si>
+  <si>
+    <t>DIMETHYLNITROSAMINEMETABOLISM1INVITROACTIVATIONOFDIMETHYLNITROSAMINETOMUTAGENICSUBSTANCESBYHEPATICANDRENALTISSUESFROM3INBREDSTRAINSOFMICE</t>
+  </si>
+  <si>
+    <t>RDEPA</t>
+  </si>
+  <si>
+    <t>BLASSINGALEJ</t>
+  </si>
+  <si>
+    <t>A1988T420500002</t>
+  </si>
+  <si>
+    <t>JRURBA</t>
+  </si>
+  <si>
+    <t>cv-institution</t>
+  </si>
+  <si>
+    <t>EDDINEBERK</t>
+  </si>
+  <si>
+    <t>OODBAS</t>
+  </si>
+  <si>
+    <t>TAGENES</t>
+  </si>
+  <si>
+    <t>TORYEFFECTSOF17BESTRADIOLONMETABOLISMOFDIMETHYLNITROSAMINEBYRENALANDHEPATICMICROSOMALENZYMESFROM</t>
+  </si>
+  <si>
+    <t>PHDOREGONUNIV</t>
+  </si>
+  <si>
+    <t>AMPYF</t>
+  </si>
+  <si>
+    <t>AHIRS</t>
+  </si>
+  <si>
+    <t>WILLIAMSAO</t>
+  </si>
+  <si>
+    <t>GAMBHIRKK</t>
+  </si>
+  <si>
+    <t>CONSTITUTIVEEXPRESSIONOFTHESTEROIDSULFATASEGENESUPPORTSTHEGROWTHOFMCF7HUMANBREASTCANCERCELLSINVITROANDINVIVO</t>
+  </si>
+  <si>
+    <t>ZWIEBELJA</t>
+  </si>
+  <si>
+    <t>CHAIRDE</t>
+  </si>
+  <si>
+    <t>ROYALCHARMAINE</t>
+  </si>
+  <si>
+    <t>NVI</t>
+  </si>
+  <si>
+    <t>RATSAS</t>
+  </si>
+  <si>
+    <t>SEFROMPORCIN</t>
+  </si>
+  <si>
+    <t>BREZOJELENA</t>
+  </si>
+  <si>
+    <t>A1981MJ48200009</t>
+  </si>
+  <si>
+    <t>TICSANDETHICSINHEALTHCARENEWQUESTIONSINTHEAGEOFGENOMICHEALTHEDRITABLACKMONSENAMERICANNURSESASSOCIATIONPP1491</t>
+  </si>
+  <si>
+    <t>JOHARIABDU</t>
+  </si>
+  <si>
+    <t>TALBOTWW</t>
+  </si>
+  <si>
+    <t>SAXENAS</t>
+  </si>
+  <si>
+    <t>FRANKLINAM</t>
+  </si>
+  <si>
+    <t>VARMAMM</t>
+  </si>
+  <si>
+    <t>JAMESMR</t>
+  </si>
+  <si>
+    <t>SAXENAA</t>
+  </si>
+  <si>
+    <t>DROSOPHILAALCOHOLDEHYDROGENASEDEVELOPMENTALSTUDIESONCRYPTICVARIANTLINES</t>
+  </si>
+  <si>
+    <t>AMPYFR</t>
+  </si>
+  <si>
+    <t>VERMA19</t>
+  </si>
+  <si>
+    <t>SMMAMPYFRAS</t>
+  </si>
+  <si>
+    <t>DIMETHYLNITROSAMINEMETABOLISM2INVITROACTIVATIONOFDIMETHYLNITROSAMINEBYHEPATICANDRENALTISSUESFROMCROSSESAMONGBALBCDBAANDC57BLMICE</t>
+  </si>
+  <si>
+    <t>REGULATORYEFFECTSOFTESTOSTERONEAND17BETAESTRADIOLONTHEMETABOLISMOFDIMETHYLNITROSAMINEBYRENALANDHEPATICMICROSOMALENZYMESFROMBALBCMICE</t>
+  </si>
+  <si>
+    <t>DAASSEFFA1988REGULATORYEFFECTSOF17BESTRADIOLONMETABOLISMOFDIMETHYLNITROSAMINEBYRENALANDHEPATICMICROSOMALENZYMESFROMBALBCMICECYTOBIOS55879</t>
+  </si>
+  <si>
+    <t>SANDERSKJ</t>
+  </si>
+  <si>
+    <t>GUESINDUCEHISTAMINERELEASEFROMPORCINEPERIPHERALBLOODBASOPHILS</t>
+  </si>
+  <si>
+    <t>TISSUESPECIFICREGULATIONOFRENALNNITROSODIMETHYLAMINEDEMETHYLASEACTIVITYBYTESTOSTERONEINBALBCMICE</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>PHILS</t>
+  </si>
+  <si>
+    <t>ROYALFRAMPYAND</t>
+  </si>
+  <si>
+    <t>cv-co_author</t>
+  </si>
+  <si>
+    <t>ERS</t>
+  </si>
+  <si>
+    <t>PUNJABAGRUNIV</t>
+  </si>
+  <si>
+    <t>MIGLANIGS</t>
+  </si>
+  <si>
+    <t>AHLUWALIABS</t>
+  </si>
+  <si>
+    <t>A1981NB65200008</t>
+  </si>
+  <si>
+    <t>HORMONALREGULATIONOFTHEMETABOLISMOFCARCINOGENSINRENALTISSUEOFBALBCMICE</t>
+  </si>
+  <si>
+    <t>SANDETHICSINHEALTHCARENEWQUESTIONSINTHEAGEOFGENOMICHEALTHEDRITABLACKMONSENAMERICANNURSESASSOCIATI</t>
+  </si>
+  <si>
+    <t>MUTAGENICITYOFBENZOAPYRENEINUNINDUCEDTISSUESFROMBALBCMICEANDSPRAGUEDAWLEYRATSASANINDEXOFPOSSIBLEHEALTHRISKUSINGTHESALMONELLAMUTAGENICITYASSAY</t>
+  </si>
+  <si>
+    <t>A1981MN57200010</t>
+  </si>
+  <si>
+    <t>VERMA1</t>
+  </si>
+  <si>
+    <t>ISKSUSINGTHE</t>
+  </si>
+  <si>
+    <t>KASSAS</t>
+  </si>
+  <si>
+    <t>cv-title</t>
+  </si>
+  <si>
+    <t>ETHNICIDENTITYANDDIABETESTYPE2HEALTHATTITUDESINAMERICANSOFAFRICANANCESTRY</t>
+  </si>
+  <si>
+    <t>MACPHERSONA</t>
+  </si>
+  <si>
+    <t>ASSEFFA1988REGULATORYEFFECTSOF17BESTRADIOLONMETABOLISMOFDIMETHYLNITROSAMINEBYRENALANDHEPATICMICROSOMALENZYMESFROMBALBCMICECYTOBI</t>
+  </si>
+  <si>
+    <t>CLARKER</t>
+  </si>
+  <si>
+    <t>VERMAK</t>
+  </si>
+  <si>
+    <t>HEADINGS2006E</t>
+  </si>
+  <si>
+    <t>ANDTECHNOLOGYINGENETICSANDETHICSINHEALTHCARENEWQU</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>CRUZIA</t>
+  </si>
+  <si>
+    <t>BIOSTATISTICSSENIORSEMINARRESEARCHENVIRONMENTALMUTAGENESISTRANSFORMATIO</t>
+  </si>
+  <si>
+    <t>NCI</t>
+  </si>
+  <si>
+    <t>MAMJOHARIAB</t>
+  </si>
+  <si>
+    <t>ETHIOPIANAGRRESORG</t>
+  </si>
+  <si>
+    <t>LEERY</t>
+  </si>
+  <si>
+    <t>FRANKLINA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -44,16 +411,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -343,37 +710,2109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col max="1" collapsed="0" customWidth="true" width="9.1" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="9.1" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="9.1" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="9.1" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="9.1" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="9.1" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="9.1" min="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2535211267605634</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.31386861313868614</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3515625</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7045454545454546</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.34545454545454546</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B50" t="n">
+        <v>74346000004</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B51" t="n">
+        <v>74346000004</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B52" t="n">
+        <v>74346000004</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B53" t="n">
+        <v>74346000004</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B54" t="n">
+        <v>74346000004</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B55" t="n">
+        <v>84924600007</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B56" t="n">
+        <v>84924600007</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B57" t="n">
+        <v>84924600007</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B58" t="n">
+        <v>84924600007</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B59" t="n">
+        <v>84924600007</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B60" t="n">
+        <v>84924600007</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B61" t="n">
+        <v>84924600007</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B62" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B63" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B64" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B65" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B66" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B67" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B68" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B69" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B70" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B71" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B72" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B73" t="n">
+        <v>167845900017</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B74" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.21649484536082475</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B75" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B76" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B77" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B78" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B79" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B80" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B81" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B82" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B83" t="n">
+        <v>188457000006</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B84" t="n">
+        <v>239287400002</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.863013698630137</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B85" t="n">
+        <v>239287400002</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B86" t="n">
+        <v>239287400002</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B87" t="n">
+        <v>239287400002</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>110</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B88" t="n">
+        <v>239287400002</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B89" t="n">
+        <v>239287400002</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="n">
+        <v>30061</v>
+      </c>
+      <c r="B90" t="n">
+        <v>239287400002</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
 </worksheet>
 </file>